--- a/BC4400F22/Lecture22/gdp_v_unrate.xlsx
+++ b/BC4400F22/Lecture22/gdp_v_unrate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/_Fall 2022/Lecture22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{BBC43DF6-5426-428E-A596-7627968B51FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95464BF-4237-42CC-8FFA-253CF2CB03FB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BBC43DF6-5426-428E-A596-7627968B51FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31AAE017-C99A-423E-AC9E-D43544DCDBDD}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{18A541C0-EDAD-4D0E-B6B0-2FE7211386B6}"/>
   </bookViews>
@@ -120,10 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,13 +555,13 @@
       <c r="A8" s="1">
         <v>17533</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>265.74200000000002</v>
       </c>
       <c r="C8" s="1">
         <v>17533</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>3.7</v>
       </c>
     </row>
@@ -570,13 +569,13 @@
       <c r="A9" s="1">
         <v>17624</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>272.56700000000001</v>
       </c>
       <c r="C9" s="1">
         <v>17624</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>3.7</v>
       </c>
     </row>
@@ -584,13 +583,13 @@
       <c r="A10" s="1">
         <v>17715</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>279.19600000000003</v>
       </c>
       <c r="C10" s="1">
         <v>17715</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>3.8</v>
       </c>
     </row>
@@ -598,13 +597,13 @@
       <c r="A11" s="1">
         <v>17807</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>280.36599999999999</v>
       </c>
       <c r="C11" s="1">
         <v>17807</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>3.8</v>
       </c>
     </row>
@@ -612,13 +611,13 @@
       <c r="A12" s="1">
         <v>17899</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>275.03399999999999</v>
       </c>
       <c r="C12" s="1">
         <v>17899</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>4.7</v>
       </c>
     </row>
@@ -626,13 +625,13 @@
       <c r="A13" s="1">
         <v>17989</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>271.351</v>
       </c>
       <c r="C13" s="1">
         <v>17989</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>5.9</v>
       </c>
     </row>
@@ -640,13 +639,13 @@
       <c r="A14" s="1">
         <v>18080</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>272.88900000000001</v>
       </c>
       <c r="C14" s="1">
         <v>18080</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>6.7</v>
       </c>
     </row>
@@ -654,13 +653,13 @@
       <c r="A15" s="1">
         <v>18172</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>270.62700000000001</v>
       </c>
       <c r="C15" s="1">
         <v>18172</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>7</v>
       </c>
     </row>
@@ -668,13 +667,13 @@
       <c r="A16" s="1">
         <v>18264</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>280.82799999999997</v>
       </c>
       <c r="C16" s="1">
         <v>18264</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>6.4</v>
       </c>
     </row>
@@ -682,13 +681,13 @@
       <c r="A17" s="1">
         <v>18354</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>290.38299999999998</v>
       </c>
       <c r="C17" s="1">
         <v>18354</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>5.6</v>
       </c>
     </row>
@@ -696,13 +695,13 @@
       <c r="A18" s="1">
         <v>18445</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>308.15300000000002</v>
       </c>
       <c r="C18" s="1">
         <v>18445</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -710,13 +709,13 @@
       <c r="A19" s="1">
         <v>18537</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>319.94499999999999</v>
       </c>
       <c r="C19" s="1">
         <v>18537</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>4.2</v>
       </c>
     </row>
@@ -724,13 +723,13 @@
       <c r="A20" s="1">
         <v>18629</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>336</v>
       </c>
       <c r="C20" s="1">
         <v>18629</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>3.5</v>
       </c>
     </row>
@@ -738,13 +737,13 @@
       <c r="A21" s="1">
         <v>18719</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>344.09</v>
       </c>
       <c r="C21" s="1">
         <v>18719</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>3.1</v>
       </c>
     </row>
@@ -752,13 +751,13 @@
       <c r="A22" s="1">
         <v>18810</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>351.38499999999999</v>
       </c>
       <c r="C22" s="1">
         <v>18810</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>3.2</v>
       </c>
     </row>
@@ -766,13 +765,13 @@
       <c r="A23" s="1">
         <v>18902</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>356.178</v>
       </c>
       <c r="C23" s="1">
         <v>18902</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>3.4</v>
       </c>
     </row>
@@ -780,13 +779,13 @@
       <c r="A24" s="1">
         <v>18994</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>359.82</v>
       </c>
       <c r="C24" s="1">
         <v>18994</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>3.1</v>
       </c>
     </row>
@@ -794,13 +793,13 @@
       <c r="A25" s="1">
         <v>19085</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>361.03</v>
       </c>
       <c r="C25" s="1">
         <v>19085</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>3</v>
       </c>
     </row>
@@ -808,13 +807,13 @@
       <c r="A26" s="1">
         <v>19176</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>367.70100000000002</v>
       </c>
       <c r="C26" s="1">
         <v>19176</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>3.2</v>
       </c>
     </row>
@@ -822,13 +821,13 @@
       <c r="A27" s="1">
         <v>19268</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>380.81200000000001</v>
       </c>
       <c r="C27" s="1">
         <v>19268</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>2.8</v>
       </c>
     </row>
@@ -836,13 +835,13 @@
       <c r="A28" s="1">
         <v>19360</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>387.98</v>
       </c>
       <c r="C28" s="1">
         <v>19360</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>2.7</v>
       </c>
     </row>
@@ -850,13 +849,13 @@
       <c r="A29" s="1">
         <v>19450</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>391.74900000000002</v>
       </c>
       <c r="C29" s="1">
         <v>19450</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>2.6</v>
       </c>
     </row>
@@ -864,13 +863,13 @@
       <c r="A30" s="1">
         <v>19541</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>391.17099999999999</v>
       </c>
       <c r="C30" s="1">
         <v>19541</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>2.7</v>
       </c>
     </row>
@@ -878,13 +877,13 @@
       <c r="A31" s="1">
         <v>19633</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>385.97</v>
       </c>
       <c r="C31" s="1">
         <v>19633</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>3.7</v>
       </c>
     </row>
@@ -892,13 +891,13 @@
       <c r="A32" s="1">
         <v>19725</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>385.34500000000003</v>
       </c>
       <c r="C32" s="1">
         <v>19725</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>5.3</v>
       </c>
     </row>
@@ -906,13 +905,13 @@
       <c r="A33" s="1">
         <v>19815</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>386.12099999999998</v>
       </c>
       <c r="C33" s="1">
         <v>19815</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>5.8</v>
       </c>
     </row>
@@ -920,13 +919,13 @@
       <c r="A34" s="1">
         <v>19906</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>390.99599999999998</v>
       </c>
       <c r="C34" s="1">
         <v>19906</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>6</v>
       </c>
     </row>
@@ -934,13 +933,13 @@
       <c r="A35" s="1">
         <v>19998</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>399.73399999999998</v>
       </c>
       <c r="C35" s="1">
         <v>19998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>5.3</v>
       </c>
     </row>
@@ -948,13 +947,13 @@
       <c r="A36" s="1">
         <v>20090</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>413.07299999999998</v>
       </c>
       <c r="C36" s="1">
         <v>20090</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>4.7</v>
       </c>
     </row>
@@ -962,13 +961,13 @@
       <c r="A37" s="1">
         <v>20180</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>421.53199999999998</v>
       </c>
       <c r="C37" s="1">
         <v>20180</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -976,13 +975,13 @@
       <c r="A38" s="1">
         <v>20271</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>430.221</v>
       </c>
       <c r="C38" s="1">
         <v>20271</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -990,13 +989,13 @@
       <c r="A39" s="1">
         <v>20363</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>437.09199999999998</v>
       </c>
       <c r="C39" s="1">
         <v>20363</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>4.2</v>
       </c>
     </row>
@@ -1004,13 +1003,13 @@
       <c r="A40" s="1">
         <v>20455</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>439.74599999999998</v>
       </c>
       <c r="C40" s="1">
         <v>20455</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>4</v>
       </c>
     </row>
@@ -1018,13 +1017,13 @@
       <c r="A41" s="1">
         <v>20546</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>446.01</v>
       </c>
       <c r="C41" s="1">
         <v>20546</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>4.2</v>
       </c>
     </row>
@@ -1032,13 +1031,13 @@
       <c r="A42" s="1">
         <v>20637</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>451.19099999999997</v>
       </c>
       <c r="C42" s="1">
         <v>20637</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1046,13 +1045,13 @@
       <c r="A43" s="1">
         <v>20729</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>460.46300000000002</v>
       </c>
       <c r="C43" s="1">
         <v>20729</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1060,13 +1059,13 @@
       <c r="A44" s="1">
         <v>20821</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>469.779</v>
       </c>
       <c r="C44" s="1">
         <v>20821</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>3.9</v>
       </c>
     </row>
@@ -1074,13 +1073,13 @@
       <c r="A45" s="1">
         <v>20911</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>472.02499999999998</v>
       </c>
       <c r="C45" s="1">
         <v>20911</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1088,13 +1087,13 @@
       <c r="A46" s="1">
         <v>21002</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>479.49</v>
       </c>
       <c r="C46" s="1">
         <v>21002</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>4.2</v>
       </c>
     </row>
@@ -1102,13 +1101,13 @@
       <c r="A47" s="1">
         <v>21094</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>474.86399999999998</v>
       </c>
       <c r="C47" s="1">
         <v>21094</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1116,13 +1115,13 @@
       <c r="A48" s="1">
         <v>21186</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>467.54</v>
       </c>
       <c r="C48" s="1">
         <v>21186</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>6.3</v>
       </c>
     </row>
@@ -1130,13 +1129,13 @@
       <c r="A49" s="1">
         <v>21276</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>471.97800000000001</v>
       </c>
       <c r="C49" s="1">
         <v>21276</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>7.4</v>
       </c>
     </row>
@@ -1144,13 +1143,13 @@
       <c r="A50" s="1">
         <v>21367</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>485.84100000000001</v>
       </c>
       <c r="C50" s="1">
         <v>21367</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>7.3</v>
       </c>
     </row>
@@ -1158,13 +1157,13 @@
       <c r="A51" s="1">
         <v>21459</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>499.55500000000001</v>
       </c>
       <c r="C51" s="1">
         <v>21459</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>6.4</v>
       </c>
     </row>
@@ -1172,13 +1171,13 @@
       <c r="A52" s="1">
         <v>21551</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>510.33</v>
       </c>
       <c r="C52" s="1">
         <v>21551</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>5.8</v>
       </c>
     </row>
@@ -1186,13 +1185,13 @@
       <c r="A53" s="1">
         <v>21641</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>522.65300000000002</v>
       </c>
       <c r="C53" s="1">
         <v>21641</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1200,13 +1199,13 @@
       <c r="A54" s="1">
         <v>21732</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>525.03399999999999</v>
       </c>
       <c r="C54" s="1">
         <v>21732</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>5.3</v>
       </c>
     </row>
@@ -1214,13 +1213,13 @@
       <c r="A55" s="1">
         <v>21824</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>528.6</v>
       </c>
       <c r="C55" s="1">
         <v>21824</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>5.6</v>
       </c>
     </row>
@@ -1228,13 +1227,13 @@
       <c r="A56" s="1">
         <v>21916</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>542.64800000000002</v>
       </c>
       <c r="C56" s="1">
         <v>21916</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1242,13 +1241,13 @@
       <c r="A57" s="1">
         <v>22007</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>541.08000000000004</v>
       </c>
       <c r="C57" s="1">
         <v>22007</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>5.2</v>
       </c>
     </row>
@@ -1256,13 +1255,13 @@
       <c r="A58" s="1">
         <v>22098</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>545.60400000000004</v>
       </c>
       <c r="C58" s="1">
         <v>22098</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>5.5</v>
       </c>
     </row>
@@ -1270,13 +1269,13 @@
       <c r="A59" s="1">
         <v>22190</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>540.197</v>
       </c>
       <c r="C59" s="1">
         <v>22190</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>6.3</v>
       </c>
     </row>
@@ -1284,13 +1283,13 @@
       <c r="A60" s="1">
         <v>22282</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>545.01800000000003</v>
       </c>
       <c r="C60" s="1">
         <v>22282</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>6.8</v>
       </c>
     </row>
@@ -1298,13 +1297,13 @@
       <c r="A61" s="1">
         <v>22372</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>555.54499999999996</v>
       </c>
       <c r="C61" s="1">
         <v>22372</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>7</v>
       </c>
     </row>
@@ -1312,13 +1311,13 @@
       <c r="A62" s="1">
         <v>22463</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>567.66399999999999</v>
       </c>
       <c r="C62" s="1">
         <v>22463</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
         <v>6.8</v>
       </c>
     </row>
@@ -1326,13 +1325,13 @@
       <c r="A63" s="1">
         <v>22555</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>580.61199999999997</v>
       </c>
       <c r="C63" s="1">
         <v>22555</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>6.2</v>
       </c>
     </row>
@@ -1340,13 +1339,13 @@
       <c r="A64" s="1">
         <v>22647</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>594.01300000000003</v>
       </c>
       <c r="C64" s="1">
         <v>22647</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>5.6</v>
       </c>
     </row>
@@ -1354,13 +1353,13 @@
       <c r="A65" s="1">
         <v>22737</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>600.36599999999999</v>
       </c>
       <c r="C65" s="1">
         <v>22737</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>5.5</v>
       </c>
     </row>
@@ -1368,13 +1367,13 @@
       <c r="A66" s="1">
         <v>22828</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>609.02700000000004</v>
       </c>
       <c r="C66" s="1">
         <v>22828</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>5.6</v>
       </c>
     </row>
@@ -1382,13 +1381,13 @@
       <c r="A67" s="1">
         <v>22920</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>612.28</v>
       </c>
       <c r="C67" s="1">
         <v>22920</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>5.5</v>
       </c>
     </row>
@@ -1396,13 +1395,13 @@
       <c r="A68" s="1">
         <v>23012</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>621.67200000000003</v>
       </c>
       <c r="C68" s="1">
         <v>23012</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
         <v>5.8</v>
       </c>
     </row>
@@ -1410,13 +1409,13 @@
       <c r="A69" s="1">
         <v>23102</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>629.75199999999995</v>
       </c>
       <c r="C69" s="1">
         <v>23102</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>5.7</v>
       </c>
     </row>
@@ -1424,13 +1423,13 @@
       <c r="A70" s="1">
         <v>23193</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>644.44399999999996</v>
       </c>
       <c r="C70" s="1">
         <v>23193</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>5.5</v>
       </c>
     </row>
@@ -1438,13 +1437,13 @@
       <c r="A71" s="1">
         <v>23285</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>653.93799999999999</v>
       </c>
       <c r="C71" s="1">
         <v>23285</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>5.6</v>
       </c>
     </row>
@@ -1452,13 +1451,13 @@
       <c r="A72" s="1">
         <v>23377</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>669.822</v>
       </c>
       <c r="C72" s="1">
         <v>23377</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
         <v>5.5</v>
       </c>
     </row>
@@ -1466,13 +1465,13 @@
       <c r="A73" s="1">
         <v>23468</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>678.67399999999998</v>
       </c>
       <c r="C73" s="1">
         <v>23468</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>5.2</v>
       </c>
     </row>
@@ -1480,13 +1479,13 @@
       <c r="A74" s="1">
         <v>23559</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>692.03099999999995</v>
       </c>
       <c r="C74" s="1">
         <v>23559</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
         <v>5</v>
       </c>
     </row>
@@ -1494,13 +1493,13 @@
       <c r="A75" s="1">
         <v>23651</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>697.31899999999996</v>
       </c>
       <c r="C75" s="1">
         <v>23651</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>5</v>
       </c>
     </row>
@@ -1508,13 +1507,13 @@
       <c r="A76" s="1">
         <v>23743</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>717.79</v>
       </c>
       <c r="C76" s="1">
         <v>23743</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1522,13 +1521,13 @@
       <c r="A77" s="1">
         <v>23833</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>730.19100000000003</v>
       </c>
       <c r="C77" s="1">
         <v>23833</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>4.7</v>
       </c>
     </row>
@@ -1536,13 +1535,13 @@
       <c r="A78" s="1">
         <v>23924</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>749.32299999999998</v>
       </c>
       <c r="C78" s="1">
         <v>23924</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1550,13 +1549,13 @@
       <c r="A79" s="1">
         <v>24016</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>771.85699999999997</v>
       </c>
       <c r="C79" s="1">
         <v>24016</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1564,13 +1563,13 @@
       <c r="A80" s="1">
         <v>24108</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>795.73400000000004</v>
       </c>
       <c r="C80" s="1">
         <v>24108</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>3.9</v>
       </c>
     </row>
@@ -1578,13 +1577,13 @@
       <c r="A81" s="1">
         <v>24198</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>804.98099999999999</v>
       </c>
       <c r="C81" s="1">
         <v>24198</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>3.8</v>
       </c>
     </row>
@@ -1592,13 +1591,13 @@
       <c r="A82" s="1">
         <v>24289</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>819.63800000000003</v>
       </c>
       <c r="C82" s="1">
         <v>24289</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>3.8</v>
       </c>
     </row>
@@ -1606,13 +1605,13 @@
       <c r="A83" s="1">
         <v>24381</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>833.30200000000002</v>
       </c>
       <c r="C83" s="1">
         <v>24381</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>3.7</v>
       </c>
     </row>
@@ -1620,13 +1619,13 @@
       <c r="A84" s="1">
         <v>24473</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>844.17</v>
       </c>
       <c r="C84" s="1">
         <v>24473</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>3.8</v>
       </c>
     </row>
@@ -1634,13 +1633,13 @@
       <c r="A85" s="1">
         <v>24563</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>848.98299999999995</v>
       </c>
       <c r="C85" s="1">
         <v>24563</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>3.8</v>
       </c>
     </row>
@@ -1648,13 +1647,13 @@
       <c r="A86" s="1">
         <v>24654</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>865.23299999999995</v>
       </c>
       <c r="C86" s="1">
         <v>24654</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>3.8</v>
       </c>
     </row>
@@ -1662,13 +1661,13 @@
       <c r="A87" s="1">
         <v>24746</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>881.43899999999996</v>
       </c>
       <c r="C87" s="1">
         <v>24746</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>3.9</v>
       </c>
     </row>
@@ -1676,13 +1675,13 @@
       <c r="A88" s="1">
         <v>24838</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>909.38699999999994</v>
       </c>
       <c r="C88" s="1">
         <v>24838</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
         <v>3.7</v>
       </c>
     </row>
@@ -1690,13 +1689,13 @@
       <c r="A89" s="1">
         <v>24929</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>934.34400000000005</v>
       </c>
       <c r="C89" s="1">
         <v>24929</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>3.6</v>
       </c>
     </row>
@@ -1704,13 +1703,13 @@
       <c r="A90" s="1">
         <v>25020</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>950.82500000000005</v>
       </c>
       <c r="C90" s="1">
         <v>25020</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>3.5</v>
       </c>
     </row>
@@ -1718,13 +1717,13 @@
       <c r="A91" s="1">
         <v>25112</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>968.03</v>
       </c>
       <c r="C91" s="1">
         <v>25112</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>3.4</v>
       </c>
     </row>
@@ -1732,13 +1731,13 @@
       <c r="A92" s="1">
         <v>25204</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>993.33699999999999</v>
       </c>
       <c r="C92" s="1">
         <v>25204</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>3.4</v>
       </c>
     </row>
@@ -1746,13 +1745,13 @@
       <c r="A93" s="1">
         <v>25294</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>1009.02</v>
       </c>
       <c r="C93" s="1">
         <v>25294</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>3.4</v>
       </c>
     </row>
@@ -1760,13 +1759,13 @@
       <c r="A94" s="1">
         <v>25385</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>1029.9559999999999</v>
       </c>
       <c r="C94" s="1">
         <v>25385</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>3.6</v>
       </c>
     </row>
@@ -1774,13 +1773,13 @@
       <c r="A95" s="1">
         <v>25477</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>1038.1469999999999</v>
       </c>
       <c r="C95" s="1">
         <v>25477</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>3.6</v>
       </c>
     </row>
@@ -1788,13 +1787,13 @@
       <c r="A96" s="1">
         <v>25569</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>1051.2</v>
       </c>
       <c r="C96" s="1">
         <v>25569</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>4.2</v>
       </c>
     </row>
@@ -1802,13 +1801,13 @@
       <c r="A97" s="1">
         <v>25659</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>1067.375</v>
       </c>
       <c r="C97" s="1">
         <v>25659</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>4.8</v>
       </c>
     </row>
@@ -1816,13 +1815,13 @@
       <c r="A98" s="1">
         <v>25750</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>1086.059</v>
       </c>
       <c r="C98" s="1">
         <v>25750</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
         <v>5.2</v>
       </c>
     </row>
@@ -1830,13 +1829,13 @@
       <c r="A99" s="1">
         <v>25842</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>1088.6079999999999</v>
       </c>
       <c r="C99" s="1">
         <v>25842</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>5.8</v>
       </c>
     </row>
@@ -1844,13 +1843,13 @@
       <c r="A100" s="1">
         <v>25934</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>1135.1559999999999</v>
       </c>
       <c r="C100" s="1">
         <v>25934</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
         <v>5.9</v>
       </c>
     </row>
@@ -1858,13 +1857,13 @@
       <c r="A101" s="1">
         <v>26024</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>1156.271</v>
       </c>
       <c r="C101" s="1">
         <v>26024</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>5.9</v>
       </c>
     </row>
@@ -1872,13 +1871,13 @@
       <c r="A102" s="1">
         <v>26115</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>1177.675</v>
       </c>
       <c r="C102" s="1">
         <v>26115</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>6</v>
       </c>
     </row>
@@ -1886,13 +1885,13 @@
       <c r="A103" s="1">
         <v>26207</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>1190.297</v>
       </c>
       <c r="C103" s="1">
         <v>26207</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>5.9</v>
       </c>
     </row>
@@ -1900,13 +1899,13 @@
       <c r="A104" s="1">
         <v>26299</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>1230.6089999999999</v>
       </c>
       <c r="C104" s="1">
         <v>26299</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>5.8</v>
       </c>
     </row>
@@ -1914,13 +1913,13 @@
       <c r="A105" s="1">
         <v>26390</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>1266.3689999999999</v>
       </c>
       <c r="C105" s="1">
         <v>26390</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>5.7</v>
       </c>
     </row>
@@ -1928,13 +1927,13 @@
       <c r="A106" s="1">
         <v>26481</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>1290.566</v>
       </c>
       <c r="C106" s="1">
         <v>26481</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>5.6</v>
       </c>
     </row>
@@ -1942,13 +1941,13 @@
       <c r="A107" s="1">
         <v>26573</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>1328.904</v>
       </c>
       <c r="C107" s="1">
         <v>26573</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>5.4</v>
       </c>
     </row>
@@ -1956,13 +1955,13 @@
       <c r="A108" s="1">
         <v>26665</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>1377.49</v>
       </c>
       <c r="C108" s="1">
         <v>26665</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1970,13 +1969,13 @@
       <c r="A109" s="1">
         <v>26755</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>1413.8869999999999</v>
       </c>
       <c r="C109" s="1">
         <v>26755</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1984,13 +1983,13 @@
       <c r="A110" s="1">
         <v>26846</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>1433.838</v>
       </c>
       <c r="C110" s="1">
         <v>26846</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>4.8</v>
       </c>
     </row>
@@ -1998,13 +1997,13 @@
       <c r="A111" s="1">
         <v>26938</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>1476.289</v>
       </c>
       <c r="C111" s="1">
         <v>26938</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>4.8</v>
       </c>
     </row>
@@ -2012,13 +2011,13 @@
       <c r="A112" s="1">
         <v>27030</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>1491.2090000000001</v>
       </c>
       <c r="C112" s="1">
         <v>27030</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -2026,13 +2025,13 @@
       <c r="A113" s="1">
         <v>27120</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>1530.056</v>
       </c>
       <c r="C113" s="1">
         <v>27120</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>5.2</v>
       </c>
     </row>
@@ -2040,13 +2039,13 @@
       <c r="A114" s="1">
         <v>27211</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>1560.0260000000001</v>
       </c>
       <c r="C114" s="1">
         <v>27211</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>5.6</v>
       </c>
     </row>
@@ -2054,13 +2053,13 @@
       <c r="A115" s="1">
         <v>27303</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>1599.6790000000001</v>
       </c>
       <c r="C115" s="1">
         <v>27303</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>6.6</v>
       </c>
     </row>
@@ -2068,13 +2067,13 @@
       <c r="A116" s="1">
         <v>27395</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>1616.116</v>
       </c>
       <c r="C116" s="1">
         <v>27395</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -2082,13 +2081,13 @@
       <c r="A117" s="1">
         <v>27485</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>1651.8530000000001</v>
       </c>
       <c r="C117" s="1">
         <v>27485</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>8.9</v>
       </c>
     </row>
@@ -2096,13 +2095,13 @@
       <c r="A118" s="1">
         <v>27576</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>1709.82</v>
       </c>
       <c r="C118" s="1">
         <v>27576</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>8.5</v>
       </c>
     </row>
@@ -2110,13 +2109,13 @@
       <c r="A119" s="1">
         <v>27668</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>1761.8309999999999</v>
       </c>
       <c r="C119" s="1">
         <v>27668</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -2124,13 +2123,13 @@
       <c r="A120" s="1">
         <v>27760</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>1820.4870000000001</v>
       </c>
       <c r="C120" s="1">
         <v>27760</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>7.7</v>
       </c>
     </row>
@@ -2138,13 +2137,13 @@
       <c r="A121" s="1">
         <v>27851</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>1852.3320000000001</v>
       </c>
       <c r="C121" s="1">
         <v>27851</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>7.6</v>
       </c>
     </row>
@@ -2152,13 +2151,13 @@
       <c r="A122" s="1">
         <v>27942</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>1886.558</v>
       </c>
       <c r="C122" s="1">
         <v>27942</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>7.7</v>
       </c>
     </row>
@@ -2166,13 +2165,13 @@
       <c r="A123" s="1">
         <v>28034</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>1934.2729999999999</v>
       </c>
       <c r="C123" s="1">
         <v>28034</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>7.8</v>
       </c>
     </row>
@@ -2180,13 +2179,13 @@
       <c r="A124" s="1">
         <v>28126</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>1988.6479999999999</v>
       </c>
       <c r="C124" s="1">
         <v>28126</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
         <v>7.5</v>
       </c>
     </row>
@@ -2194,13 +2193,13 @@
       <c r="A125" s="1">
         <v>28216</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>2055.9090000000001</v>
       </c>
       <c r="C125" s="1">
         <v>28216</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>7.1</v>
       </c>
     </row>
@@ -2208,13 +2207,13 @@
       <c r="A126" s="1">
         <v>28307</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>2118.473</v>
       </c>
       <c r="C126" s="1">
         <v>28307</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>6.9</v>
       </c>
     </row>
@@ -2222,13 +2221,13 @@
       <c r="A127" s="1">
         <v>28399</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>2164.27</v>
       </c>
       <c r="C127" s="1">
         <v>28399</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>6.7</v>
       </c>
     </row>
@@ -2236,13 +2235,13 @@
       <c r="A128" s="1">
         <v>28491</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>2202.7600000000002</v>
       </c>
       <c r="C128" s="1">
         <v>28491</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
         <v>6.3</v>
       </c>
     </row>
@@ -2250,13 +2249,13 @@
       <c r="A129" s="1">
         <v>28581</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>2331.6329999999998</v>
       </c>
       <c r="C129" s="1">
         <v>28581</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>6</v>
       </c>
     </row>
@@ -2264,13 +2263,13 @@
       <c r="A130" s="1">
         <v>28672</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>2395.0529999999999</v>
       </c>
       <c r="C130" s="1">
         <v>28672</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>6</v>
       </c>
     </row>
@@ -2278,13 +2277,13 @@
       <c r="A131" s="1">
         <v>28764</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>2476.9490000000001</v>
       </c>
       <c r="C131" s="1">
         <v>28764</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>5.9</v>
       </c>
     </row>
@@ -2292,13 +2291,13 @@
       <c r="A132" s="1">
         <v>28856</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>2526.61</v>
       </c>
       <c r="C132" s="1">
         <v>28856</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>5.9</v>
       </c>
     </row>
@@ -2306,13 +2305,13 @@
       <c r="A133" s="1">
         <v>28946</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>2591.2469999999998</v>
       </c>
       <c r="C133" s="1">
         <v>28946</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>5.7</v>
       </c>
     </row>
@@ -2320,13 +2319,13 @@
       <c r="A134" s="1">
         <v>29037</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>2667.5650000000001</v>
       </c>
       <c r="C134" s="1">
         <v>29037</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
         <v>5.9</v>
       </c>
     </row>
@@ -2334,13 +2333,13 @@
       <c r="A135" s="1">
         <v>29129</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>2723.8829999999998</v>
       </c>
       <c r="C135" s="1">
         <v>29129</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>6</v>
       </c>
     </row>
@@ -2348,13 +2347,13 @@
       <c r="A136" s="1">
         <v>29221</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>2789.8420000000001</v>
       </c>
       <c r="C136" s="1">
         <v>29221</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
         <v>6.3</v>
       </c>
     </row>
@@ -2362,13 +2361,13 @@
       <c r="A137" s="1">
         <v>29312</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>2797.3519999999999</v>
       </c>
       <c r="C137" s="1">
         <v>29312</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>7.3</v>
       </c>
     </row>
@@ -2376,13 +2375,13 @@
       <c r="A138" s="1">
         <v>29403</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>2856.4830000000002</v>
       </c>
       <c r="C138" s="1">
         <v>29403</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>7.7</v>
       </c>
     </row>
@@ -2390,13 +2389,13 @@
       <c r="A139" s="1">
         <v>29495</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>2985.5569999999998</v>
       </c>
       <c r="C139" s="1">
         <v>29495</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>7.4</v>
       </c>
     </row>
@@ -2404,13 +2403,13 @@
       <c r="A140" s="1">
         <v>29587</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>3124.2060000000001</v>
       </c>
       <c r="C140" s="1">
         <v>29587</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
         <v>7.4</v>
       </c>
     </row>
@@ -2418,13 +2417,13 @@
       <c r="A141" s="1">
         <v>29677</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>3162.5320000000002</v>
       </c>
       <c r="C141" s="1">
         <v>29677</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>7.4</v>
       </c>
     </row>
@@ -2432,13 +2431,13 @@
       <c r="A142" s="1">
         <v>29768</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>3260.6089999999999</v>
       </c>
       <c r="C142" s="1">
         <v>29768</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>7.4</v>
       </c>
     </row>
@@ -2446,13 +2445,13 @@
       <c r="A143" s="1">
         <v>29860</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>3280.8180000000002</v>
       </c>
       <c r="C143" s="1">
         <v>29860</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -2460,13 +2459,13 @@
       <c r="A144" s="1">
         <v>29952</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>3274.3020000000001</v>
       </c>
       <c r="C144" s="1">
         <v>29952</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -2474,13 +2473,13 @@
       <c r="A145" s="1">
         <v>30042</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>3331.9720000000002</v>
       </c>
       <c r="C145" s="1">
         <v>30042</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>9.4</v>
       </c>
     </row>
@@ -2488,13 +2487,13 @@
       <c r="A146" s="1">
         <v>30133</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>3366.3220000000001</v>
       </c>
       <c r="C146" s="1">
         <v>30133</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>9.9</v>
       </c>
     </row>
@@ -2502,13 +2501,13 @@
       <c r="A147" s="1">
         <v>30225</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>3402.5610000000001</v>
       </c>
       <c r="C147" s="1">
         <v>30225</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>10.7</v>
       </c>
     </row>
@@ -2516,13 +2515,13 @@
       <c r="A148" s="1">
         <v>30317</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>3473.413</v>
       </c>
       <c r="C148" s="1">
         <v>30317</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>10.4</v>
       </c>
     </row>
@@ -2530,13 +2529,13 @@
       <c r="A149" s="1">
         <v>30407</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>3578.848</v>
       </c>
       <c r="C149" s="1">
         <v>30407</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>10.1</v>
       </c>
     </row>
@@ -2544,13 +2543,13 @@
       <c r="A150" s="1">
         <v>30498</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>3689.1790000000001</v>
       </c>
       <c r="C150" s="1">
         <v>30498</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>9.4</v>
       </c>
     </row>
@@ -2558,13 +2557,13 @@
       <c r="A151" s="1">
         <v>30590</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>3794.7060000000001</v>
       </c>
       <c r="C151" s="1">
         <v>30590</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>8.5</v>
       </c>
     </row>
@@ -2572,13 +2571,13 @@
       <c r="A152" s="1">
         <v>30682</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>3908.0540000000001</v>
       </c>
       <c r="C152" s="1">
         <v>30682</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152">
         <v>7.9</v>
       </c>
     </row>
@@ -2586,13 +2585,13 @@
       <c r="A153" s="1">
         <v>30773</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>4009.6010000000001</v>
       </c>
       <c r="C153" s="1">
         <v>30773</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>7.4</v>
       </c>
     </row>
@@ -2600,13 +2599,13 @@
       <c r="A154" s="1">
         <v>30864</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>4084.25</v>
       </c>
       <c r="C154" s="1">
         <v>30864</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>7.4</v>
       </c>
     </row>
@@ -2614,13 +2613,13 @@
       <c r="A155" s="1">
         <v>30956</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>4148.5510000000004</v>
       </c>
       <c r="C155" s="1">
         <v>30956</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>7.3</v>
       </c>
     </row>
@@ -2628,13 +2627,13 @@
       <c r="A156" s="1">
         <v>31048</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>4230.1679999999997</v>
       </c>
       <c r="C156" s="1">
         <v>31048</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>7.2</v>
       </c>
     </row>
@@ -2642,13 +2641,13 @@
       <c r="A157" s="1">
         <v>31138</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>4294.8869999999997</v>
       </c>
       <c r="C157" s="1">
         <v>31138</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>7.3</v>
       </c>
     </row>
@@ -2656,13 +2655,13 @@
       <c r="A158" s="1">
         <v>31229</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>4386.7730000000001</v>
       </c>
       <c r="C158" s="1">
         <v>31229</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>7.2</v>
       </c>
     </row>
@@ -2670,13 +2669,13 @@
       <c r="A159" s="1">
         <v>31321</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>4444.0940000000001</v>
       </c>
       <c r="C159" s="1">
         <v>31321</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>7</v>
       </c>
     </row>
@@ -2684,13 +2683,13 @@
       <c r="A160" s="1">
         <v>31413</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>4507.8940000000002</v>
       </c>
       <c r="C160" s="1">
         <v>31413</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160">
         <v>7</v>
       </c>
     </row>
@@ -2698,13 +2697,13 @@
       <c r="A161" s="1">
         <v>31503</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>4545.34</v>
       </c>
       <c r="C161" s="1">
         <v>31503</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>7.2</v>
       </c>
     </row>
@@ -2712,13 +2711,13 @@
       <c r="A162" s="1">
         <v>31594</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>4607.6689999999999</v>
       </c>
       <c r="C162" s="1">
         <v>31594</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>7</v>
       </c>
     </row>
@@ -2726,13 +2725,13 @@
       <c r="A163" s="1">
         <v>31686</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>4657.6270000000004</v>
       </c>
       <c r="C163" s="1">
         <v>31686</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>6.8</v>
       </c>
     </row>
@@ -2740,13 +2739,13 @@
       <c r="A164" s="1">
         <v>31778</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>4722.1559999999999</v>
       </c>
       <c r="C164" s="1">
         <v>31778</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164">
         <v>6.6</v>
       </c>
     </row>
@@ -2754,13 +2753,13 @@
       <c r="A165" s="1">
         <v>31868</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>4806.16</v>
       </c>
       <c r="C165" s="1">
         <v>31868</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>6.3</v>
       </c>
     </row>
@@ -2768,13 +2767,13 @@
       <c r="A166" s="1">
         <v>31959</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>4884.5550000000003</v>
       </c>
       <c r="C166" s="1">
         <v>31959</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166">
         <v>6</v>
       </c>
     </row>
@@ -2782,13 +2781,13 @@
       <c r="A167" s="1">
         <v>32051</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>5007.9939999999997</v>
       </c>
       <c r="C167" s="1">
         <v>32051</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167">
         <v>5.8</v>
       </c>
     </row>
@@ -2796,13 +2795,13 @@
       <c r="A168" s="1">
         <v>32143</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>5073.3720000000003</v>
       </c>
       <c r="C168" s="1">
         <v>32143</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168">
         <v>5.7</v>
       </c>
     </row>
@@ -2810,13 +2809,13 @@
       <c r="A169" s="1">
         <v>32234</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>5190.0360000000001</v>
       </c>
       <c r="C169" s="1">
         <v>32234</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>5.5</v>
       </c>
     </row>
@@ -2824,13 +2823,13 @@
       <c r="A170" s="1">
         <v>32325</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>5282.835</v>
       </c>
       <c r="C170" s="1">
         <v>32325</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170">
         <v>5.5</v>
       </c>
     </row>
@@ -2838,13 +2837,13 @@
       <c r="A171" s="1">
         <v>32417</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>5399.509</v>
       </c>
       <c r="C171" s="1">
         <v>32417</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171">
         <v>5.3</v>
       </c>
     </row>
@@ -2852,13 +2851,13 @@
       <c r="A172" s="1">
         <v>32509</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>5511.2529999999997</v>
       </c>
       <c r="C172" s="1">
         <v>32509</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172">
         <v>5.2</v>
       </c>
     </row>
@@ -2866,13 +2865,13 @@
       <c r="A173" s="1">
         <v>32599</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>5612.4629999999997</v>
       </c>
       <c r="C173" s="1">
         <v>32599</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173">
         <v>5.2</v>
       </c>
     </row>
@@ -2880,13 +2879,13 @@
       <c r="A174" s="1">
         <v>32690</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>5695.3649999999998</v>
       </c>
       <c r="C174" s="1">
         <v>32690</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174">
         <v>5.2</v>
       </c>
     </row>
@@ -2894,13 +2893,13 @@
       <c r="A175" s="1">
         <v>32782</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>5747.2370000000001</v>
       </c>
       <c r="C175" s="1">
         <v>32782</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>5.4</v>
       </c>
     </row>
@@ -2908,13 +2907,13 @@
       <c r="A176" s="1">
         <v>32874</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>5872.701</v>
       </c>
       <c r="C176" s="1">
         <v>32874</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176">
         <v>5.3</v>
       </c>
     </row>
@@ -2922,13 +2921,13 @@
       <c r="A177" s="1">
         <v>32964</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>5960.0280000000002</v>
       </c>
       <c r="C177" s="1">
         <v>32964</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>5.3</v>
       </c>
     </row>
@@ -2936,13 +2935,13 @@
       <c r="A178" s="1">
         <v>33055</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>6015.116</v>
       </c>
       <c r="C178" s="1">
         <v>33055</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178">
         <v>5.7</v>
       </c>
     </row>
@@ -2950,13 +2949,13 @@
       <c r="A179" s="1">
         <v>33147</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>6004.7330000000002</v>
       </c>
       <c r="C179" s="1">
         <v>33147</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>6.1</v>
       </c>
     </row>
@@ -2964,13 +2963,13 @@
       <c r="A180" s="1">
         <v>33239</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>6035.1779999999999</v>
       </c>
       <c r="C180" s="1">
         <v>33239</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180">
         <v>6.6</v>
       </c>
     </row>
@@ -2978,13 +2977,13 @@
       <c r="A181" s="1">
         <v>33329</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>6126.8620000000001</v>
       </c>
       <c r="C181" s="1">
         <v>33329</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181">
         <v>6.8</v>
       </c>
     </row>
@@ -2992,13 +2991,13 @@
       <c r="A182" s="1">
         <v>33420</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>6205.9369999999999</v>
       </c>
       <c r="C182" s="1">
         <v>33420</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182">
         <v>6.9</v>
       </c>
     </row>
@@ -3006,13 +3005,13 @@
       <c r="A183" s="1">
         <v>33512</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>6264.54</v>
       </c>
       <c r="C183" s="1">
         <v>33512</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>7.1</v>
       </c>
     </row>
@@ -3020,13 +3019,13 @@
       <c r="A184" s="1">
         <v>33604</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>6363.1019999999999</v>
       </c>
       <c r="C184" s="1">
         <v>33604</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184">
         <v>7.4</v>
       </c>
     </row>
@@ -3034,13 +3033,13 @@
       <c r="A185" s="1">
         <v>33695</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>6470.7629999999999</v>
       </c>
       <c r="C185" s="1">
         <v>33695</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185">
         <v>7.6</v>
       </c>
     </row>
@@ -3048,13 +3047,13 @@
       <c r="A186" s="1">
         <v>33786</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>6566.6409999999996</v>
       </c>
       <c r="C186" s="1">
         <v>33786</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186">
         <v>7.6</v>
       </c>
     </row>
@@ -3062,13 +3061,13 @@
       <c r="A187" s="1">
         <v>33878</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>6680.8029999999999</v>
       </c>
       <c r="C187" s="1">
         <v>33878</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>7.4</v>
       </c>
     </row>
@@ -3076,13 +3075,13 @@
       <c r="A188" s="1">
         <v>33970</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>6729.4589999999998</v>
       </c>
       <c r="C188" s="1">
         <v>33970</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188">
         <v>7.1</v>
       </c>
     </row>
@@ -3090,13 +3089,13 @@
       <c r="A189" s="1">
         <v>34060</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>6808.9390000000003</v>
       </c>
       <c r="C189" s="1">
         <v>34060</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>7.1</v>
       </c>
     </row>
@@ -3104,13 +3103,13 @@
       <c r="A190" s="1">
         <v>34151</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>6882.098</v>
       </c>
       <c r="C190" s="1">
         <v>34151</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>6.8</v>
       </c>
     </row>
@@ -3118,13 +3117,13 @@
       <c r="A191" s="1">
         <v>34243</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>7013.7380000000003</v>
       </c>
       <c r="C191" s="1">
         <v>34243</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>6.6</v>
       </c>
     </row>
@@ -3132,13 +3131,13 @@
       <c r="A192" s="1">
         <v>34335</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>7115.652</v>
       </c>
       <c r="C192" s="1">
         <v>34335</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192">
         <v>6.6</v>
       </c>
     </row>
@@ -3146,13 +3145,13 @@
       <c r="A193" s="1">
         <v>34425</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>7246.9309999999996</v>
       </c>
       <c r="C193" s="1">
         <v>34425</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>6.2</v>
       </c>
     </row>
@@ -3160,13 +3159,13 @@
       <c r="A194" s="1">
         <v>34516</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>7331.0749999999998</v>
       </c>
       <c r="C194" s="1">
         <v>34516</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194">
         <v>6</v>
       </c>
     </row>
@@ -3174,13 +3173,13 @@
       <c r="A195" s="1">
         <v>34608</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>7455.2879999999996</v>
       </c>
       <c r="C195" s="1">
         <v>34608</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195">
         <v>5.6</v>
       </c>
     </row>
@@ -3188,13 +3187,13 @@
       <c r="A196" s="1">
         <v>34700</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>7522.2889999999998</v>
       </c>
       <c r="C196" s="1">
         <v>34700</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196">
         <v>5.5</v>
       </c>
     </row>
@@ -3202,13 +3201,13 @@
       <c r="A197" s="1">
         <v>34790</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>7580.9970000000003</v>
       </c>
       <c r="C197" s="1">
         <v>34790</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197">
         <v>5.7</v>
       </c>
     </row>
@@ -3216,13 +3215,13 @@
       <c r="A198" s="1">
         <v>34881</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>7683.125</v>
       </c>
       <c r="C198" s="1">
         <v>34881</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198">
         <v>5.7</v>
       </c>
     </row>
@@ -3230,13 +3229,13 @@
       <c r="A199" s="1">
         <v>34973</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>7772.5860000000002</v>
       </c>
       <c r="C199" s="1">
         <v>34973</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199">
         <v>5.6</v>
       </c>
     </row>
@@ -3244,13 +3243,13 @@
       <c r="A200" s="1">
         <v>35065</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>7868.4679999999998</v>
       </c>
       <c r="C200" s="1">
         <v>35065</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200">
         <v>5.5</v>
       </c>
     </row>
@@ -3258,13 +3257,13 @@
       <c r="A201" s="1">
         <v>35156</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>8032.84</v>
       </c>
       <c r="C201" s="1">
         <v>35156</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201">
         <v>5.5</v>
       </c>
     </row>
@@ -3272,13 +3271,13 @@
       <c r="A202" s="1">
         <v>35247</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <v>8131.4080000000004</v>
       </c>
       <c r="C202" s="1">
         <v>35247</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202">
         <v>5.3</v>
       </c>
     </row>
@@ -3286,13 +3285,13 @@
       <c r="A203" s="1">
         <v>35339</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <v>8259.7710000000006</v>
       </c>
       <c r="C203" s="1">
         <v>35339</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203">
         <v>5.3</v>
       </c>
     </row>
@@ -3300,13 +3299,13 @@
       <c r="A204" s="1">
         <v>35431</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>8362.6550000000007</v>
       </c>
       <c r="C204" s="1">
         <v>35431</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204">
         <v>5.2</v>
       </c>
     </row>
@@ -3314,13 +3313,13 @@
       <c r="A205" s="1">
         <v>35521</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>8518.8250000000007</v>
       </c>
       <c r="C205" s="1">
         <v>35521</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>5</v>
       </c>
     </row>
@@ -3328,13 +3327,13 @@
       <c r="A206" s="1">
         <v>35612</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>8662.8230000000003</v>
       </c>
       <c r="C206" s="1">
         <v>35612</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3342,13 +3341,13 @@
       <c r="A207" s="1">
         <v>35704</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>8765.9069999999992</v>
       </c>
       <c r="C207" s="1">
         <v>35704</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>4.7</v>
       </c>
     </row>
@@ -3356,13 +3355,13 @@
       <c r="A208" s="1">
         <v>35796</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <v>8866.48</v>
       </c>
       <c r="C208" s="1">
         <v>35796</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3370,13 +3369,13 @@
       <c r="A209" s="1">
         <v>35886</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>8969.6990000000005</v>
       </c>
       <c r="C209" s="1">
         <v>35886</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3384,13 +3383,13 @@
       <c r="A210" s="1">
         <v>35977</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>9121.0969999999998</v>
       </c>
       <c r="C210" s="1">
         <v>35977</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210">
         <v>4.5</v>
       </c>
     </row>
@@ -3398,13 +3397,13 @@
       <c r="A211" s="1">
         <v>36069</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <v>9293.991</v>
       </c>
       <c r="C211" s="1">
         <v>36069</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3412,13 +3411,13 @@
       <c r="A212" s="1">
         <v>36161</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <v>9411.6820000000007</v>
       </c>
       <c r="C212" s="1">
         <v>36161</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212">
         <v>4.3</v>
       </c>
     </row>
@@ -3426,13 +3425,13 @@
       <c r="A213" s="1">
         <v>36251</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213">
         <v>9526.2099999999991</v>
       </c>
       <c r="C213" s="1">
         <v>36251</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>4.3</v>
       </c>
     </row>
@@ -3440,13 +3439,13 @@
       <c r="A214" s="1">
         <v>36342</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214">
         <v>9686.6260000000002</v>
       </c>
       <c r="C214" s="1">
         <v>36342</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214">
         <v>4.2</v>
       </c>
     </row>
@@ -3454,13 +3453,13 @@
       <c r="A215" s="1">
         <v>36434</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215">
         <v>9900.1689999999999</v>
       </c>
       <c r="C215" s="1">
         <v>36434</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -3468,13 +3467,13 @@
       <c r="A216" s="1">
         <v>36526</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216">
         <v>10002.179</v>
       </c>
       <c r="C216" s="1">
         <v>36526</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216">
         <v>4</v>
       </c>
     </row>
@@ -3482,13 +3481,13 @@
       <c r="A217" s="1">
         <v>36617</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217">
         <v>10247.719999999999</v>
       </c>
       <c r="C217" s="1">
         <v>36617</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217">
         <v>3.9</v>
       </c>
     </row>
@@ -3496,13 +3495,13 @@
       <c r="A218" s="1">
         <v>36708</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218">
         <v>10318.165000000001</v>
       </c>
       <c r="C218" s="1">
         <v>36708</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218">
         <v>4</v>
       </c>
     </row>
@@ -3510,13 +3509,13 @@
       <c r="A219" s="1">
         <v>36800</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219">
         <v>10435.744000000001</v>
       </c>
       <c r="C219" s="1">
         <v>36800</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>3.9</v>
       </c>
     </row>
@@ -3524,13 +3523,13 @@
       <c r="A220" s="1">
         <v>36892</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220">
         <v>10470.231</v>
       </c>
       <c r="C220" s="1">
         <v>36892</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220">
         <v>4.2</v>
       </c>
     </row>
@@ -3538,13 +3537,13 @@
       <c r="A221" s="1">
         <v>36982</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221">
         <v>10599</v>
       </c>
       <c r="C221" s="1">
         <v>36982</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3552,13 +3551,13 @@
       <c r="A222" s="1">
         <v>37073</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222">
         <v>10598.02</v>
       </c>
       <c r="C222" s="1">
         <v>37073</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222">
         <v>4.8</v>
       </c>
     </row>
@@ -3566,13 +3565,13 @@
       <c r="A223" s="1">
         <v>37165</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223">
         <v>10660.465</v>
       </c>
       <c r="C223" s="1">
         <v>37165</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223">
         <v>5.5</v>
       </c>
     </row>
@@ -3580,13 +3579,13 @@
       <c r="A224" s="1">
         <v>37257</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224">
         <v>10783.5</v>
       </c>
       <c r="C224" s="1">
         <v>37257</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224">
         <v>5.7</v>
       </c>
     </row>
@@ -3594,13 +3593,13 @@
       <c r="A225" s="1">
         <v>37347</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225">
         <v>10887.46</v>
       </c>
       <c r="C225" s="1">
         <v>37347</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225">
         <v>5.8</v>
       </c>
     </row>
@@ -3608,13 +3607,13 @@
       <c r="A226" s="1">
         <v>37438</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226">
         <v>10984.04</v>
       </c>
       <c r="C226" s="1">
         <v>37438</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226">
         <v>5.7</v>
       </c>
     </row>
@@ -3622,13 +3621,13 @@
       <c r="A227" s="1">
         <v>37530</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227">
         <v>11061.433000000001</v>
       </c>
       <c r="C227" s="1">
         <v>37530</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227">
         <v>5.9</v>
       </c>
     </row>
@@ -3636,13 +3635,13 @@
       <c r="A228" s="1">
         <v>37622</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228">
         <v>11174.129000000001</v>
       </c>
       <c r="C228" s="1">
         <v>37622</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228">
         <v>5.9</v>
       </c>
     </row>
@@ -3650,13 +3649,13 @@
       <c r="A229" s="1">
         <v>37712</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229">
         <v>11312.766</v>
       </c>
       <c r="C229" s="1">
         <v>37712</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229">
         <v>6.1</v>
       </c>
     </row>
@@ -3664,13 +3663,13 @@
       <c r="A230" s="1">
         <v>37803</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230">
         <v>11566.669</v>
       </c>
       <c r="C230" s="1">
         <v>37803</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230">
         <v>6.1</v>
       </c>
     </row>
@@ -3678,13 +3677,13 @@
       <c r="A231" s="1">
         <v>37895</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231">
         <v>11772.234</v>
       </c>
       <c r="C231" s="1">
         <v>37895</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231">
         <v>5.8</v>
       </c>
     </row>
@@ -3692,13 +3691,13 @@
       <c r="A232" s="1">
         <v>37987</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232">
         <v>11923.447</v>
       </c>
       <c r="C232" s="1">
         <v>37987</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232">
         <v>5.7</v>
       </c>
     </row>
@@ -3706,13 +3705,13 @@
       <c r="A233" s="1">
         <v>38078</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233">
         <v>12112.815000000001</v>
       </c>
       <c r="C233" s="1">
         <v>38078</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>5.6</v>
       </c>
     </row>
@@ -3720,13 +3719,13 @@
       <c r="A234" s="1">
         <v>38169</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234">
         <v>12305.307000000001</v>
       </c>
       <c r="C234" s="1">
         <v>38169</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234">
         <v>5.4</v>
       </c>
     </row>
@@ -3734,13 +3733,13 @@
       <c r="A235" s="1">
         <v>38261</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235">
         <v>12527.214</v>
       </c>
       <c r="C235" s="1">
         <v>38261</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235">
         <v>5.4</v>
       </c>
     </row>
@@ -3748,13 +3747,13 @@
       <c r="A236" s="1">
         <v>38353</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236">
         <v>12767.286</v>
       </c>
       <c r="C236" s="1">
         <v>38353</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236">
         <v>5.3</v>
       </c>
     </row>
@@ -3762,13 +3761,13 @@
       <c r="A237" s="1">
         <v>38443</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237">
         <v>12922.656000000001</v>
       </c>
       <c r="C237" s="1">
         <v>38443</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -3776,13 +3775,13 @@
       <c r="A238" s="1">
         <v>38534</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238">
         <v>13142.642</v>
       </c>
       <c r="C238" s="1">
         <v>38534</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238">
         <v>5</v>
       </c>
     </row>
@@ -3790,13 +3789,13 @@
       <c r="A239" s="1">
         <v>38626</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239">
         <v>13324.204</v>
       </c>
       <c r="C239" s="1">
         <v>38626</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239">
         <v>5</v>
       </c>
     </row>
@@ -3804,13 +3803,13 @@
       <c r="A240" s="1">
         <v>38718</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240">
         <v>13599.16</v>
       </c>
       <c r="C240" s="1">
         <v>38718</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240">
         <v>4.7</v>
       </c>
     </row>
@@ -3818,13 +3817,13 @@
       <c r="A241" s="1">
         <v>38808</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241">
         <v>13753.424000000001</v>
       </c>
       <c r="C241" s="1">
         <v>38808</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3832,13 +3831,13 @@
       <c r="A242" s="1">
         <v>38899</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242">
         <v>13870.188</v>
       </c>
       <c r="C242" s="1">
         <v>38899</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3846,13 +3845,13 @@
       <c r="A243" s="1">
         <v>38991</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243">
         <v>14039.56</v>
       </c>
       <c r="C243" s="1">
         <v>38991</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3860,13 +3859,13 @@
       <c r="A244" s="1">
         <v>39083</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244">
         <v>14215.651</v>
       </c>
       <c r="C244" s="1">
         <v>39083</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244">
         <v>4.5</v>
       </c>
     </row>
@@ -3874,13 +3873,13 @@
       <c r="A245" s="1">
         <v>39173</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245">
         <v>14402.082</v>
       </c>
       <c r="C245" s="1">
         <v>39173</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245">
         <v>4.5</v>
       </c>
     </row>
@@ -3888,13 +3887,13 @@
       <c r="A246" s="1">
         <v>39264</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246">
         <v>14564.117</v>
       </c>
       <c r="C246" s="1">
         <v>39264</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246">
         <v>4.7</v>
       </c>
     </row>
@@ -3902,13 +3901,13 @@
       <c r="A247" s="1">
         <v>39356</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <v>14715.058000000001</v>
       </c>
       <c r="C247" s="1">
         <v>39356</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247">
         <v>4.8</v>
       </c>
     </row>
@@ -3916,13 +3915,13 @@
       <c r="A248" s="1">
         <v>39448</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248">
         <v>14706.538</v>
       </c>
       <c r="C248" s="1">
         <v>39448</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248">
         <v>5</v>
       </c>
     </row>
@@ -3930,13 +3929,13 @@
       <c r="A249" s="1">
         <v>39539</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <v>14865.700999999999</v>
       </c>
       <c r="C249" s="1">
         <v>39539</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249">
         <v>5.3</v>
       </c>
     </row>
@@ -3944,13 +3943,13 @@
       <c r="A250" s="1">
         <v>39630</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250">
         <v>14898.999</v>
       </c>
       <c r="C250" s="1">
         <v>39630</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250">
         <v>6</v>
       </c>
     </row>
@@ -3958,13 +3957,13 @@
       <c r="A251" s="1">
         <v>39722</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251">
         <v>14608.208000000001</v>
       </c>
       <c r="C251" s="1">
         <v>39722</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251">
         <v>6.9</v>
       </c>
     </row>
@@ -3972,13 +3971,13 @@
       <c r="A252" s="1">
         <v>39814</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252">
         <v>14430.901</v>
       </c>
       <c r="C252" s="1">
         <v>39814</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3986,13 +3985,13 @@
       <c r="A253" s="1">
         <v>39904</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253">
         <v>14381.236000000001</v>
       </c>
       <c r="C253" s="1">
         <v>39904</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -4000,13 +3999,13 @@
       <c r="A254" s="1">
         <v>39995</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <v>14448.882</v>
       </c>
       <c r="C254" s="1">
         <v>39995</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254">
         <v>9.6</v>
       </c>
     </row>
@@ -4014,13 +4013,13 @@
       <c r="A255" s="1">
         <v>40087</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255">
         <v>14651.248</v>
       </c>
       <c r="C255" s="1">
         <v>40087</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255">
         <v>9.9</v>
       </c>
     </row>
@@ -4028,13 +4027,13 @@
       <c r="A256" s="1">
         <v>40179</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256">
         <v>14764.611000000001</v>
       </c>
       <c r="C256" s="1">
         <v>40179</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -4042,13 +4041,13 @@
       <c r="A257" s="1">
         <v>40269</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257">
         <v>14980.192999999999</v>
       </c>
       <c r="C257" s="1">
         <v>40269</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257">
         <v>9.6</v>
       </c>
     </row>
@@ -4056,13 +4055,13 @@
       <c r="A258" s="1">
         <v>40360</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258">
         <v>15141.605</v>
       </c>
       <c r="C258" s="1">
         <v>40360</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258">
         <v>9.5</v>
       </c>
     </row>
@@ -4070,13 +4069,13 @@
       <c r="A259" s="1">
         <v>40452</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259">
         <v>15309.471</v>
       </c>
       <c r="C259" s="1">
         <v>40452</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259">
         <v>9.5</v>
       </c>
     </row>
@@ -4084,13 +4083,13 @@
       <c r="A260" s="1">
         <v>40544</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260">
         <v>15351.444</v>
       </c>
       <c r="C260" s="1">
         <v>40544</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260">
         <v>9</v>
       </c>
     </row>
@@ -4098,13 +4097,13 @@
       <c r="A261" s="1">
         <v>40634</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261">
         <v>15557.535</v>
       </c>
       <c r="C261" s="1">
         <v>40634</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261">
         <v>9.1</v>
       </c>
     </row>
@@ -4112,13 +4111,13 @@
       <c r="A262" s="1">
         <v>40725</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262">
         <v>15647.681</v>
       </c>
       <c r="C262" s="1">
         <v>40725</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262">
         <v>9</v>
       </c>
     </row>
@@ -4126,13 +4125,13 @@
       <c r="A263" s="1">
         <v>40817</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263">
         <v>15842.267</v>
       </c>
       <c r="C263" s="1">
         <v>40817</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263">
         <v>8.6</v>
       </c>
     </row>
@@ -4140,13 +4139,13 @@
       <c r="A264" s="1">
         <v>40909</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <v>16068.824000000001</v>
       </c>
       <c r="C264" s="1">
         <v>40909</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -4154,13 +4153,13 @@
       <c r="A265" s="1">
         <v>41000</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265">
         <v>16207.13</v>
       </c>
       <c r="C265" s="1">
         <v>41000</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -4168,13 +4167,13 @@
       <c r="A266" s="1">
         <v>41091</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266">
         <v>16319.54</v>
       </c>
       <c r="C266" s="1">
         <v>41091</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266">
         <v>8</v>
       </c>
     </row>
@@ -4182,13 +4181,13 @@
       <c r="A267" s="1">
         <v>41183</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267">
         <v>16420.385999999999</v>
       </c>
       <c r="C267" s="1">
         <v>41183</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267">
         <v>7.8</v>
       </c>
     </row>
@@ -4196,13 +4195,13 @@
       <c r="A268" s="1">
         <v>41275</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268">
         <v>16629.05</v>
       </c>
       <c r="C268" s="1">
         <v>41275</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268">
         <v>7.7</v>
       </c>
     </row>
@@ -4210,13 +4209,13 @@
       <c r="A269" s="1">
         <v>41365</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269">
         <v>16699.550999999999</v>
       </c>
       <c r="C269" s="1">
         <v>41365</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>7.5</v>
       </c>
     </row>
@@ -4224,13 +4223,13 @@
       <c r="A270" s="1">
         <v>41456</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270">
         <v>16911.067999999999</v>
       </c>
       <c r="C270" s="1">
         <v>41456</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270">
         <v>7.2</v>
       </c>
     </row>
@@ -4238,13 +4237,13 @@
       <c r="A271" s="1">
         <v>41548</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271">
         <v>17133.114000000001</v>
       </c>
       <c r="C271" s="1">
         <v>41548</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271">
         <v>6.9</v>
       </c>
     </row>
@@ -4252,13 +4251,13 @@
       <c r="A272" s="1">
         <v>41640</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272">
         <v>17144.280999999999</v>
       </c>
       <c r="C272" s="1">
         <v>41640</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272">
         <v>6.7</v>
       </c>
     </row>
@@ -4266,13 +4265,13 @@
       <c r="A273" s="1">
         <v>41730</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <v>17462.703000000001</v>
       </c>
       <c r="C273" s="1">
         <v>41730</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273">
         <v>6.2</v>
       </c>
     </row>
@@ -4280,13 +4279,13 @@
       <c r="A274" s="1">
         <v>41821</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <v>17743.226999999999</v>
       </c>
       <c r="C274" s="1">
         <v>41821</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274">
         <v>6.1</v>
       </c>
     </row>
@@ -4294,13 +4293,13 @@
       <c r="A275" s="1">
         <v>41913</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <v>17852.54</v>
       </c>
       <c r="C275" s="1">
         <v>41913</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275">
         <v>5.7</v>
       </c>
     </row>
@@ -4308,13 +4307,13 @@
       <c r="A276" s="1">
         <v>42005</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276">
         <v>17991.348000000002</v>
       </c>
       <c r="C276" s="1">
         <v>42005</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276">
         <v>5.5</v>
       </c>
     </row>
@@ -4322,13 +4321,13 @@
       <c r="A277" s="1">
         <v>42095</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277">
         <v>18193.706999999999</v>
       </c>
       <c r="C277" s="1">
         <v>42095</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277">
         <v>5.4</v>
       </c>
     </row>
@@ -4336,13 +4335,13 @@
       <c r="A278" s="1">
         <v>42186</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278">
         <v>18306.96</v>
       </c>
       <c r="C278" s="1">
         <v>42186</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4350,13 +4349,13 @@
       <c r="A279" s="1">
         <v>42278</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279">
         <v>18332.079000000002</v>
       </c>
       <c r="C279" s="1">
         <v>42278</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279">
         <v>5</v>
       </c>
     </row>
@@ -4364,13 +4363,13 @@
       <c r="A280" s="1">
         <v>42370</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280">
         <v>18425.306</v>
       </c>
       <c r="C280" s="1">
         <v>42370</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4378,13 +4377,13 @@
       <c r="A281" s="1">
         <v>42461</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281">
         <v>18611.616999999998</v>
       </c>
       <c r="C281" s="1">
         <v>42461</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4392,13 +4391,13 @@
       <c r="A282" s="1">
         <v>42552</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282">
         <v>18775.458999999999</v>
       </c>
       <c r="C282" s="1">
         <v>42552</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4406,13 +4405,13 @@
       <c r="A283" s="1">
         <v>42644</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283">
         <v>18968.041000000001</v>
       </c>
       <c r="C283" s="1">
         <v>42644</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283">
         <v>4.8</v>
       </c>
     </row>
@@ -4420,13 +4419,13 @@
       <c r="A284" s="1">
         <v>42736</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284">
         <v>19148.194</v>
       </c>
       <c r="C284" s="1">
         <v>42736</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4434,13 +4433,13 @@
       <c r="A285" s="1">
         <v>42826</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285">
         <v>19304.506000000001</v>
       </c>
       <c r="C285" s="1">
         <v>42826</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4448,13 +4447,13 @@
       <c r="A286" s="1">
         <v>42917</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286">
         <v>19561.896000000001</v>
       </c>
       <c r="C286" s="1">
         <v>42917</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286">
         <v>4.3</v>
       </c>
     </row>
@@ -4462,13 +4461,13 @@
       <c r="A287" s="1">
         <v>43009</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287">
         <v>19894.75</v>
       </c>
       <c r="C287" s="1">
         <v>43009</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287">
         <v>4.2</v>
       </c>
     </row>
@@ -4476,13 +4475,13 @@
       <c r="A288" s="1">
         <v>43101</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288">
         <v>20155.486000000001</v>
       </c>
       <c r="C288" s="1">
         <v>43101</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288">
         <v>4</v>
       </c>
     </row>
@@ -4490,13 +4489,13 @@
       <c r="A289" s="1">
         <v>43191</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289">
         <v>20470.197</v>
       </c>
       <c r="C289" s="1">
         <v>43191</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289">
         <v>3.9</v>
       </c>
     </row>
@@ -4504,13 +4503,13 @@
       <c r="A290" s="1">
         <v>43282</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290">
         <v>20687.277999999998</v>
       </c>
       <c r="C290" s="1">
         <v>43282</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290">
         <v>3.8</v>
       </c>
     </row>
@@ -4518,13 +4517,13 @@
       <c r="A291" s="1">
         <v>43374</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291">
         <v>20819.269</v>
       </c>
       <c r="C291" s="1">
         <v>43374</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>3.8</v>
       </c>
     </row>
@@ -4532,13 +4531,13 @@
       <c r="A292" s="1">
         <v>43466</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292">
         <v>21013.084999999999</v>
       </c>
       <c r="C292" s="1">
         <v>43466</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
         <v>3.9</v>
       </c>
     </row>
@@ -4546,13 +4545,13 @@
       <c r="A293" s="1">
         <v>43556</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <v>21272.448</v>
       </c>
       <c r="C293" s="1">
         <v>43556</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293">
         <v>3.6</v>
       </c>
     </row>
@@ -4560,13 +4559,13 @@
       <c r="A294" s="1">
         <v>43647</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294">
         <v>21531.839</v>
       </c>
       <c r="C294" s="1">
         <v>43647</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>3.6</v>
       </c>
     </row>
@@ -4574,13 +4573,13 @@
       <c r="A295" s="1">
         <v>43739</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295">
         <v>21706.531999999999</v>
       </c>
       <c r="C295" s="1">
         <v>43739</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295">
         <v>3.6</v>
       </c>
     </row>
@@ -4588,13 +4587,13 @@
       <c r="A296" s="1">
         <v>43831</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296">
         <v>21538.031999999999</v>
       </c>
       <c r="C296" s="1">
         <v>43831</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>3.8</v>
       </c>
     </row>
@@ -4602,13 +4601,13 @@
       <c r="A297" s="1">
         <v>43922</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <v>19636.731</v>
       </c>
       <c r="C297" s="1">
         <v>43922</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297">
         <v>13</v>
       </c>
     </row>
@@ -4616,13 +4615,13 @@
       <c r="A298" s="1">
         <v>44013</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298">
         <v>21362.428</v>
       </c>
       <c r="C298" s="1">
         <v>44013</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -4630,13 +4629,13 @@
       <c r="A299" s="1">
         <v>44105</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299">
         <v>21704.705999999998</v>
       </c>
       <c r="C299" s="1">
         <v>44105</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299">
         <v>6.8</v>
       </c>
     </row>
@@ -4644,13 +4643,13 @@
       <c r="A300" s="1">
         <v>44197</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300">
         <v>22313.85</v>
       </c>
       <c r="C300" s="1">
         <v>44197</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300">
         <v>6.2</v>
       </c>
     </row>
@@ -4658,13 +4657,13 @@
       <c r="A301" s="1">
         <v>44287</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301">
         <v>23046.934000000001</v>
       </c>
       <c r="C301" s="1">
         <v>44287</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301">
         <v>5.9</v>
       </c>
     </row>
@@ -4672,13 +4671,13 @@
       <c r="A302" s="1">
         <v>44378</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <v>23550.42</v>
       </c>
       <c r="C302" s="1">
         <v>44378</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4686,13 +4685,13 @@
       <c r="A303" s="1">
         <v>44470</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303">
         <v>24349.120999999999</v>
       </c>
       <c r="C303" s="1">
         <v>44470</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303">
         <v>4.2</v>
       </c>
     </row>
@@ -4700,13 +4699,13 @@
       <c r="A304" s="1">
         <v>44562</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304">
         <v>24740.48</v>
       </c>
       <c r="C304" s="1">
         <v>44562</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304">
         <v>3.8</v>
       </c>
     </row>
@@ -4714,13 +4713,13 @@
       <c r="A305" s="1">
         <v>44652</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305">
         <v>25248.475999999999</v>
       </c>
       <c r="C305" s="1">
         <v>44652</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305">
         <v>3.6</v>
       </c>
     </row>
@@ -4728,2424 +4727,1822 @@
       <c r="A306" s="1">
         <v>44743</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306">
         <v>25663.289000000001</v>
       </c>
       <c r="C306" s="1">
         <v>44743</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306">
         <v>3.6</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
-      <c r="B307" s="2"/>
       <c r="C307" s="1">
         <v>44835</v>
       </c>
-      <c r="D307" s="2" t="e">
+      <c r="D307" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
-      <c r="B308" s="2"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
-      <c r="B309" s="2"/>
       <c r="C309" s="1"/>
-      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
-      <c r="B310" s="2"/>
       <c r="C310" s="1"/>
-      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C311" s="1"/>
-      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C312" s="1"/>
-      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C313" s="1"/>
-      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C314" s="1"/>
-      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C315" s="1"/>
-      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C316" s="1"/>
-      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C317" s="1"/>
-      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C318" s="1"/>
-      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C319" s="1"/>
-      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C320" s="1"/>
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C321" s="1"/>
-      <c r="D321" s="2"/>
-    </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C322" s="1"/>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C323" s="1"/>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C324" s="1"/>
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C325" s="1"/>
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C326" s="1"/>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C327" s="1"/>
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C328" s="1"/>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C329" s="1"/>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C330" s="1"/>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C331" s="1"/>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C332" s="1"/>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C333" s="1"/>
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C334" s="1"/>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C335" s="1"/>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C336" s="1"/>
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C337" s="1"/>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C338" s="1"/>
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C339" s="1"/>
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C340" s="1"/>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C341" s="1"/>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C342" s="1"/>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C343" s="1"/>
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C344" s="1"/>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C345" s="1"/>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C346" s="1"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C347" s="1"/>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C348" s="1"/>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C349" s="1"/>
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C350" s="1"/>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C351" s="1"/>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C352" s="1"/>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C353" s="1"/>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C354" s="1"/>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C355" s="1"/>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C356" s="1"/>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C357" s="1"/>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C358" s="1"/>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C359" s="1"/>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C360" s="1"/>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C361" s="1"/>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C362" s="1"/>
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C363" s="1"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C364" s="1"/>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C365" s="1"/>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C366" s="1"/>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C367" s="1"/>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C368" s="1"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C369" s="1"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C370" s="1"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C371" s="1"/>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C372" s="1"/>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C373" s="1"/>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C374" s="1"/>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C375" s="1"/>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C376" s="1"/>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C377" s="1"/>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C378" s="1"/>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C379" s="1"/>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C380" s="1"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C381" s="1"/>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C382" s="1"/>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C383" s="1"/>
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C384" s="1"/>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C385" s="1"/>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C386" s="1"/>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C387" s="1"/>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C388" s="1"/>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C389" s="1"/>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C390" s="1"/>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C391" s="1"/>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C392" s="1"/>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C393" s="1"/>
-      <c r="D393" s="2"/>
-    </row>
-    <row r="394" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C394" s="1"/>
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C395" s="1"/>
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C396" s="1"/>
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C397" s="1"/>
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C398" s="1"/>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C399" s="1"/>
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C400" s="1"/>
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C401" s="1"/>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C402" s="1"/>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C403" s="1"/>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C404" s="1"/>
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C405" s="1"/>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C406" s="1"/>
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C407" s="1"/>
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C408" s="1"/>
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C409" s="1"/>
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C410" s="1"/>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C411" s="1"/>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C412" s="1"/>
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C413" s="1"/>
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C414" s="1"/>
-      <c r="D414" s="2"/>
-    </row>
-    <row r="415" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C415" s="1"/>
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C416" s="1"/>
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C417" s="1"/>
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C418" s="1"/>
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C419" s="1"/>
-      <c r="D419" s="2"/>
-    </row>
-    <row r="420" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C420" s="1"/>
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C421" s="1"/>
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C422" s="1"/>
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C423" s="1"/>
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C424" s="1"/>
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C425" s="1"/>
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C426" s="1"/>
-      <c r="D426" s="2"/>
-    </row>
-    <row r="427" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C427" s="1"/>
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C428" s="1"/>
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C429" s="1"/>
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C430" s="1"/>
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C431" s="1"/>
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C432" s="1"/>
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C433" s="1"/>
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C434" s="1"/>
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C435" s="1"/>
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C436" s="1"/>
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C437" s="1"/>
-      <c r="D437" s="2"/>
-    </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C438" s="1"/>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C439" s="1"/>
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C440" s="1"/>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C441" s="1"/>
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C442" s="1"/>
-      <c r="D442" s="2"/>
-    </row>
-    <row r="443" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C443" s="1"/>
-      <c r="D443" s="2"/>
-    </row>
-    <row r="444" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C444" s="1"/>
-      <c r="D444" s="2"/>
-    </row>
-    <row r="445" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C445" s="1"/>
-      <c r="D445" s="2"/>
-    </row>
-    <row r="446" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C446" s="1"/>
-      <c r="D446" s="2"/>
-    </row>
-    <row r="447" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C447" s="1"/>
-      <c r="D447" s="2"/>
-    </row>
-    <row r="448" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C448" s="1"/>
-      <c r="D448" s="2"/>
-    </row>
-    <row r="449" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C449" s="1"/>
-      <c r="D449" s="2"/>
-    </row>
-    <row r="450" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C450" s="1"/>
-      <c r="D450" s="2"/>
-    </row>
-    <row r="451" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C451" s="1"/>
-      <c r="D451" s="2"/>
-    </row>
-    <row r="452" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C452" s="1"/>
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C453" s="1"/>
-      <c r="D453" s="2"/>
-    </row>
-    <row r="454" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C454" s="1"/>
-      <c r="D454" s="2"/>
-    </row>
-    <row r="455" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C455" s="1"/>
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C456" s="1"/>
-      <c r="D456" s="2"/>
-    </row>
-    <row r="457" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C457" s="1"/>
-      <c r="D457" s="2"/>
-    </row>
-    <row r="458" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C458" s="1"/>
-      <c r="D458" s="2"/>
-    </row>
-    <row r="459" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C459" s="1"/>
-      <c r="D459" s="2"/>
-    </row>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C460" s="1"/>
-      <c r="D460" s="2"/>
-    </row>
-    <row r="461" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C461" s="1"/>
-      <c r="D461" s="2"/>
-    </row>
-    <row r="462" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C462" s="1"/>
-      <c r="D462" s="2"/>
-    </row>
-    <row r="463" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C463" s="1"/>
-      <c r="D463" s="2"/>
-    </row>
-    <row r="464" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C464" s="1"/>
-      <c r="D464" s="2"/>
-    </row>
-    <row r="465" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C465" s="1"/>
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C466" s="1"/>
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C467" s="1"/>
-      <c r="D467" s="2"/>
-    </row>
-    <row r="468" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C468" s="1"/>
-      <c r="D468" s="2"/>
-    </row>
-    <row r="469" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C469" s="1"/>
-      <c r="D469" s="2"/>
-    </row>
-    <row r="470" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C470" s="1"/>
-      <c r="D470" s="2"/>
-    </row>
-    <row r="471" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C471" s="1"/>
-      <c r="D471" s="2"/>
-    </row>
-    <row r="472" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C472" s="1"/>
-      <c r="D472" s="2"/>
-    </row>
-    <row r="473" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C473" s="1"/>
-      <c r="D473" s="2"/>
-    </row>
-    <row r="474" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C474" s="1"/>
-      <c r="D474" s="2"/>
-    </row>
-    <row r="475" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C475" s="1"/>
-      <c r="D475" s="2"/>
-    </row>
-    <row r="476" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C476" s="1"/>
-      <c r="D476" s="2"/>
-    </row>
-    <row r="477" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C477" s="1"/>
-      <c r="D477" s="2"/>
-    </row>
-    <row r="478" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C478" s="1"/>
-      <c r="D478" s="2"/>
-    </row>
-    <row r="479" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C479" s="1"/>
-      <c r="D479" s="2"/>
-    </row>
-    <row r="480" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C480" s="1"/>
-      <c r="D480" s="2"/>
-    </row>
-    <row r="481" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C481" s="1"/>
-      <c r="D481" s="2"/>
-    </row>
-    <row r="482" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C482" s="1"/>
-      <c r="D482" s="2"/>
-    </row>
-    <row r="483" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C483" s="1"/>
-      <c r="D483" s="2"/>
-    </row>
-    <row r="484" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C484" s="1"/>
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C485" s="1"/>
-      <c r="D485" s="2"/>
-    </row>
-    <row r="486" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C486" s="1"/>
-      <c r="D486" s="2"/>
-    </row>
-    <row r="487" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C487" s="1"/>
-      <c r="D487" s="2"/>
-    </row>
-    <row r="488" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C488" s="1"/>
-      <c r="D488" s="2"/>
-    </row>
-    <row r="489" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C489" s="1"/>
-      <c r="D489" s="2"/>
-    </row>
-    <row r="490" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C490" s="1"/>
-      <c r="D490" s="2"/>
-    </row>
-    <row r="491" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C491" s="1"/>
-      <c r="D491" s="2"/>
-    </row>
-    <row r="492" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C492" s="1"/>
-      <c r="D492" s="2"/>
-    </row>
-    <row r="493" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C493" s="1"/>
-      <c r="D493" s="2"/>
-    </row>
-    <row r="494" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C494" s="1"/>
-      <c r="D494" s="2"/>
-    </row>
-    <row r="495" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C495" s="1"/>
-      <c r="D495" s="2"/>
-    </row>
-    <row r="496" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C496" s="1"/>
-      <c r="D496" s="2"/>
-    </row>
-    <row r="497" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C497" s="1"/>
-      <c r="D497" s="2"/>
-    </row>
-    <row r="498" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C498" s="1"/>
-      <c r="D498" s="2"/>
-    </row>
-    <row r="499" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C499" s="1"/>
-      <c r="D499" s="2"/>
-    </row>
-    <row r="500" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C500" s="1"/>
-      <c r="D500" s="2"/>
-    </row>
-    <row r="501" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C501" s="1"/>
-      <c r="D501" s="2"/>
-    </row>
-    <row r="502" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C502" s="1"/>
-      <c r="D502" s="2"/>
-    </row>
-    <row r="503" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C503" s="1"/>
-      <c r="D503" s="2"/>
-    </row>
-    <row r="504" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C504" s="1"/>
-      <c r="D504" s="2"/>
-    </row>
-    <row r="505" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C505" s="1"/>
-      <c r="D505" s="2"/>
-    </row>
-    <row r="506" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C506" s="1"/>
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C507" s="1"/>
-      <c r="D507" s="2"/>
-    </row>
-    <row r="508" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C508" s="1"/>
-      <c r="D508" s="2"/>
-    </row>
-    <row r="509" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C509" s="1"/>
-      <c r="D509" s="2"/>
-    </row>
-    <row r="510" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C510" s="1"/>
-      <c r="D510" s="2"/>
-    </row>
-    <row r="511" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C511" s="1"/>
-      <c r="D511" s="2"/>
-    </row>
-    <row r="512" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C512" s="1"/>
-      <c r="D512" s="2"/>
-    </row>
-    <row r="513" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C513" s="1"/>
-      <c r="D513" s="2"/>
-    </row>
-    <row r="514" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C514" s="1"/>
-      <c r="D514" s="2"/>
-    </row>
-    <row r="515" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C515" s="1"/>
-      <c r="D515" s="2"/>
-    </row>
-    <row r="516" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C516" s="1"/>
-      <c r="D516" s="2"/>
-    </row>
-    <row r="517" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C517" s="1"/>
-      <c r="D517" s="2"/>
-    </row>
-    <row r="518" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C518" s="1"/>
-      <c r="D518" s="2"/>
-    </row>
-    <row r="519" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C519" s="1"/>
-      <c r="D519" s="2"/>
-    </row>
-    <row r="520" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C520" s="1"/>
-      <c r="D520" s="2"/>
-    </row>
-    <row r="521" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C521" s="1"/>
-      <c r="D521" s="2"/>
-    </row>
-    <row r="522" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C522" s="1"/>
-      <c r="D522" s="2"/>
-    </row>
-    <row r="523" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C523" s="1"/>
-      <c r="D523" s="2"/>
-    </row>
-    <row r="524" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C524" s="1"/>
-      <c r="D524" s="2"/>
-    </row>
-    <row r="525" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C525" s="1"/>
-      <c r="D525" s="2"/>
-    </row>
-    <row r="526" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C526" s="1"/>
-      <c r="D526" s="2"/>
-    </row>
-    <row r="527" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C527" s="1"/>
-      <c r="D527" s="2"/>
-    </row>
-    <row r="528" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C528" s="1"/>
-      <c r="D528" s="2"/>
-    </row>
-    <row r="529" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C529" s="1"/>
-      <c r="D529" s="2"/>
-    </row>
-    <row r="530" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C530" s="1"/>
-      <c r="D530" s="2"/>
-    </row>
-    <row r="531" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C531" s="1"/>
-      <c r="D531" s="2"/>
-    </row>
-    <row r="532" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C532" s="1"/>
-      <c r="D532" s="2"/>
-    </row>
-    <row r="533" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C533" s="1"/>
-      <c r="D533" s="2"/>
-    </row>
-    <row r="534" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C534" s="1"/>
-      <c r="D534" s="2"/>
-    </row>
-    <row r="535" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C535" s="1"/>
-      <c r="D535" s="2"/>
-    </row>
-    <row r="536" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C536" s="1"/>
-      <c r="D536" s="2"/>
-    </row>
-    <row r="537" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C537" s="1"/>
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C538" s="1"/>
-      <c r="D538" s="2"/>
-    </row>
-    <row r="539" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C539" s="1"/>
-      <c r="D539" s="2"/>
-    </row>
-    <row r="540" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C540" s="1"/>
-      <c r="D540" s="2"/>
-    </row>
-    <row r="541" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C541" s="1"/>
-      <c r="D541" s="2"/>
-    </row>
-    <row r="542" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C542" s="1"/>
-      <c r="D542" s="2"/>
-    </row>
-    <row r="543" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C543" s="1"/>
-      <c r="D543" s="2"/>
-    </row>
-    <row r="544" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C544" s="1"/>
-      <c r="D544" s="2"/>
-    </row>
-    <row r="545" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C545" s="1"/>
-      <c r="D545" s="2"/>
-    </row>
-    <row r="546" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C546" s="1"/>
-      <c r="D546" s="2"/>
-    </row>
-    <row r="547" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C547" s="1"/>
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C548" s="1"/>
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C549" s="1"/>
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C550" s="1"/>
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C551" s="1"/>
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C552" s="1"/>
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C553" s="1"/>
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C554" s="1"/>
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C555" s="1"/>
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C556" s="1"/>
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C557" s="1"/>
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C558" s="1"/>
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C559" s="1"/>
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C560" s="1"/>
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C561" s="1"/>
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C562" s="1"/>
-      <c r="D562" s="2"/>
-    </row>
-    <row r="563" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C563" s="1"/>
-      <c r="D563" s="2"/>
-    </row>
-    <row r="564" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C564" s="1"/>
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C565" s="1"/>
-      <c r="D565" s="2"/>
-    </row>
-    <row r="566" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C566" s="1"/>
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C567" s="1"/>
-      <c r="D567" s="2"/>
-    </row>
-    <row r="568" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C568" s="1"/>
-      <c r="D568" s="2"/>
-    </row>
-    <row r="569" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C569" s="1"/>
-      <c r="D569" s="2"/>
-    </row>
-    <row r="570" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C570" s="1"/>
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C571" s="1"/>
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C572" s="1"/>
-      <c r="D572" s="2"/>
-    </row>
-    <row r="573" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C573" s="1"/>
-      <c r="D573" s="2"/>
-    </row>
-    <row r="574" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C574" s="1"/>
-      <c r="D574" s="2"/>
-    </row>
-    <row r="575" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C575" s="1"/>
-      <c r="D575" s="2"/>
-    </row>
-    <row r="576" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C576" s="1"/>
-      <c r="D576" s="2"/>
-    </row>
-    <row r="577" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C577" s="1"/>
-      <c r="D577" s="2"/>
-    </row>
-    <row r="578" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C578" s="1"/>
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C579" s="1"/>
-      <c r="D579" s="2"/>
-    </row>
-    <row r="580" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C580" s="1"/>
-      <c r="D580" s="2"/>
-    </row>
-    <row r="581" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C581" s="1"/>
-      <c r="D581" s="2"/>
-    </row>
-    <row r="582" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C582" s="1"/>
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C583" s="1"/>
-      <c r="D583" s="2"/>
-    </row>
-    <row r="584" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C584" s="1"/>
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C585" s="1"/>
-      <c r="D585" s="2"/>
-    </row>
-    <row r="586" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C586" s="1"/>
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C587" s="1"/>
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C588" s="1"/>
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C589" s="1"/>
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C590" s="1"/>
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C591" s="1"/>
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C592" s="1"/>
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C593" s="1"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C594" s="1"/>
-      <c r="D594" s="2"/>
-    </row>
-    <row r="595" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C595" s="1"/>
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C596" s="1"/>
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C597" s="1"/>
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C598" s="1"/>
-      <c r="D598" s="2"/>
-    </row>
-    <row r="599" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C599" s="1"/>
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C600" s="1"/>
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C601" s="1"/>
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C602" s="1"/>
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C603" s="1"/>
-      <c r="D603" s="2"/>
-    </row>
-    <row r="604" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C604" s="1"/>
-      <c r="D604" s="2"/>
-    </row>
-    <row r="605" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C605" s="1"/>
-      <c r="D605" s="2"/>
-    </row>
-    <row r="606" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C606" s="1"/>
-      <c r="D606" s="2"/>
-    </row>
-    <row r="607" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C607" s="1"/>
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C608" s="1"/>
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C609" s="1"/>
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C610" s="1"/>
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C611" s="1"/>
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C612" s="1"/>
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C613" s="1"/>
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C614" s="1"/>
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C615" s="1"/>
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C616" s="1"/>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C617" s="1"/>
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C618" s="1"/>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C619" s="1"/>
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C620" s="1"/>
-      <c r="D620" s="2"/>
-    </row>
-    <row r="621" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C621" s="1"/>
-      <c r="D621" s="2"/>
-    </row>
-    <row r="622" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C622" s="1"/>
-      <c r="D622" s="2"/>
-    </row>
-    <row r="623" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C623" s="1"/>
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C624" s="1"/>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C625" s="1"/>
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C626" s="1"/>
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C627" s="1"/>
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C628" s="1"/>
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C629" s="1"/>
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C630" s="1"/>
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C631" s="1"/>
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C632" s="1"/>
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C633" s="1"/>
-      <c r="D633" s="2"/>
-    </row>
-    <row r="634" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C634" s="1"/>
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C635" s="1"/>
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C636" s="1"/>
-      <c r="D636" s="2"/>
-    </row>
-    <row r="637" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C637" s="1"/>
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C638" s="1"/>
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C639" s="1"/>
-      <c r="D639" s="2"/>
-    </row>
-    <row r="640" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C640" s="1"/>
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C641" s="1"/>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C642" s="1"/>
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C643" s="1"/>
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C644" s="1"/>
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C645" s="1"/>
-      <c r="D645" s="2"/>
-    </row>
-    <row r="646" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C646" s="1"/>
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C647" s="1"/>
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C648" s="1"/>
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C649" s="1"/>
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C650" s="1"/>
-      <c r="D650" s="2"/>
-    </row>
-    <row r="651" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C651" s="1"/>
-      <c r="D651" s="2"/>
-    </row>
-    <row r="652" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C652" s="1"/>
-      <c r="D652" s="2"/>
-    </row>
-    <row r="653" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C653" s="1"/>
-      <c r="D653" s="2"/>
-    </row>
-    <row r="654" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C654" s="1"/>
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C655" s="1"/>
-      <c r="D655" s="2"/>
-    </row>
-    <row r="656" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C656" s="1"/>
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C657" s="1"/>
-      <c r="D657" s="2"/>
-    </row>
-    <row r="658" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C658" s="1"/>
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C659" s="1"/>
-      <c r="D659" s="2"/>
-    </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C660" s="1"/>
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C661" s="1"/>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C662" s="1"/>
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C663" s="1"/>
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C664" s="1"/>
-      <c r="D664" s="2"/>
-    </row>
-    <row r="665" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C665" s="1"/>
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C666" s="1"/>
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C667" s="1"/>
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C668" s="1"/>
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C669" s="1"/>
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C670" s="1"/>
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C671" s="1"/>
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C672" s="1"/>
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C673" s="1"/>
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C674" s="1"/>
-      <c r="D674" s="2"/>
-    </row>
-    <row r="675" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C675" s="1"/>
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C676" s="1"/>
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C677" s="1"/>
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C678" s="1"/>
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C679" s="1"/>
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C680" s="1"/>
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C681" s="1"/>
-      <c r="D681" s="2"/>
-    </row>
-    <row r="682" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C682" s="1"/>
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C683" s="1"/>
-      <c r="D683" s="2"/>
-    </row>
-    <row r="684" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C684" s="1"/>
-      <c r="D684" s="2"/>
-    </row>
-    <row r="685" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C685" s="1"/>
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C686" s="1"/>
-      <c r="D686" s="2"/>
-    </row>
-    <row r="687" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C687" s="1"/>
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C688" s="1"/>
-      <c r="D688" s="2"/>
-    </row>
-    <row r="689" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C689" s="1"/>
-      <c r="D689" s="2"/>
-    </row>
-    <row r="690" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C690" s="1"/>
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C691" s="1"/>
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C692" s="1"/>
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C693" s="1"/>
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C694" s="1"/>
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C695" s="1"/>
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C696" s="1"/>
-      <c r="D696" s="2"/>
-    </row>
-    <row r="697" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C697" s="1"/>
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C698" s="1"/>
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C699" s="1"/>
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C700" s="1"/>
-      <c r="D700" s="2"/>
-    </row>
-    <row r="701" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C701" s="1"/>
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C702" s="1"/>
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C703" s="1"/>
-      <c r="D703" s="2"/>
-    </row>
-    <row r="704" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C704" s="1"/>
-      <c r="D704" s="2"/>
-    </row>
-    <row r="705" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C705" s="1"/>
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C706" s="1"/>
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C707" s="1"/>
-      <c r="D707" s="2"/>
-    </row>
-    <row r="708" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C708" s="1"/>
-      <c r="D708" s="2"/>
-    </row>
-    <row r="709" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C709" s="1"/>
-      <c r="D709" s="2"/>
-    </row>
-    <row r="710" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C710" s="1"/>
-      <c r="D710" s="2"/>
-    </row>
-    <row r="711" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C711" s="1"/>
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C712" s="1"/>
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C713" s="1"/>
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C714" s="1"/>
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C715" s="1"/>
-      <c r="D715" s="2"/>
-    </row>
-    <row r="716" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C716" s="1"/>
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C717" s="1"/>
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C718" s="1"/>
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C719" s="1"/>
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C720" s="1"/>
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C721" s="1"/>
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C722" s="1"/>
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C723" s="1"/>
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C724" s="1"/>
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C725" s="1"/>
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C726" s="1"/>
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C727" s="1"/>
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C728" s="1"/>
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C729" s="1"/>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C730" s="1"/>
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C731" s="1"/>
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C732" s="1"/>
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C733" s="1"/>
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C734" s="1"/>
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C735" s="1"/>
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C736" s="1"/>
-      <c r="D736" s="2"/>
-    </row>
-    <row r="737" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C737" s="1"/>
-      <c r="D737" s="2"/>
-    </row>
-    <row r="738" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C738" s="1"/>
-      <c r="D738" s="2"/>
-    </row>
-    <row r="739" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C739" s="1"/>
-      <c r="D739" s="2"/>
-    </row>
-    <row r="740" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C740" s="1"/>
-      <c r="D740" s="2"/>
-    </row>
-    <row r="741" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C741" s="1"/>
-      <c r="D741" s="2"/>
-    </row>
-    <row r="742" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C742" s="1"/>
-      <c r="D742" s="2"/>
-    </row>
-    <row r="743" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C743" s="1"/>
-      <c r="D743" s="2"/>
-    </row>
-    <row r="744" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C744" s="1"/>
-      <c r="D744" s="2"/>
-    </row>
-    <row r="745" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C745" s="1"/>
-      <c r="D745" s="2"/>
-    </row>
-    <row r="746" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C746" s="1"/>
-      <c r="D746" s="2"/>
-    </row>
-    <row r="747" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C747" s="1"/>
-      <c r="D747" s="2"/>
-    </row>
-    <row r="748" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C748" s="1"/>
-      <c r="D748" s="2"/>
-    </row>
-    <row r="749" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C749" s="1"/>
-      <c r="D749" s="2"/>
-    </row>
-    <row r="750" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C750" s="1"/>
-      <c r="D750" s="2"/>
-    </row>
-    <row r="751" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C751" s="1"/>
-      <c r="D751" s="2"/>
-    </row>
-    <row r="752" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C752" s="1"/>
-      <c r="D752" s="2"/>
-    </row>
-    <row r="753" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C753" s="1"/>
-      <c r="D753" s="2"/>
-    </row>
-    <row r="754" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C754" s="1"/>
-      <c r="D754" s="2"/>
-    </row>
-    <row r="755" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C755" s="1"/>
-      <c r="D755" s="2"/>
-    </row>
-    <row r="756" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C756" s="1"/>
-      <c r="D756" s="2"/>
-    </row>
-    <row r="757" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C757" s="1"/>
-      <c r="D757" s="2"/>
-    </row>
-    <row r="758" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C758" s="1"/>
-      <c r="D758" s="2"/>
-    </row>
-    <row r="759" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C759" s="1"/>
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C760" s="1"/>
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C761" s="1"/>
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C762" s="1"/>
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C763" s="1"/>
-      <c r="D763" s="2"/>
-    </row>
-    <row r="764" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C764" s="1"/>
-      <c r="D764" s="2"/>
-    </row>
-    <row r="765" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C765" s="1"/>
-      <c r="D765" s="2"/>
-    </row>
-    <row r="766" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C766" s="1"/>
-      <c r="D766" s="2"/>
-    </row>
-    <row r="767" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C767" s="1"/>
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C768" s="1"/>
-      <c r="D768" s="2"/>
-    </row>
-    <row r="769" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C769" s="1"/>
-      <c r="D769" s="2"/>
-    </row>
-    <row r="770" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C770" s="1"/>
-      <c r="D770" s="2"/>
-    </row>
-    <row r="771" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C771" s="1"/>
-      <c r="D771" s="2"/>
-    </row>
-    <row r="772" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C772" s="1"/>
-      <c r="D772" s="2"/>
-    </row>
-    <row r="773" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C773" s="1"/>
-      <c r="D773" s="2"/>
-    </row>
-    <row r="774" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C774" s="1"/>
-      <c r="D774" s="2"/>
-    </row>
-    <row r="775" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C775" s="1"/>
-      <c r="D775" s="2"/>
-    </row>
-    <row r="776" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C776" s="1"/>
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C777" s="1"/>
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C778" s="1"/>
-      <c r="D778" s="2"/>
-    </row>
-    <row r="779" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C779" s="1"/>
-      <c r="D779" s="2"/>
-    </row>
-    <row r="780" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C780" s="1"/>
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C781" s="1"/>
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C782" s="1"/>
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C783" s="1"/>
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C784" s="1"/>
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C785" s="1"/>
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C786" s="1"/>
-      <c r="D786" s="2"/>
-    </row>
-    <row r="787" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C787" s="1"/>
-      <c r="D787" s="2"/>
-    </row>
-    <row r="788" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C788" s="1"/>
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C789" s="1"/>
-      <c r="D789" s="2"/>
-    </row>
-    <row r="790" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C790" s="1"/>
-      <c r="D790" s="2"/>
-    </row>
-    <row r="791" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C791" s="1"/>
-      <c r="D791" s="2"/>
-    </row>
-    <row r="792" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C792" s="1"/>
-      <c r="D792" s="2"/>
-    </row>
-    <row r="793" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C793" s="1"/>
-      <c r="D793" s="2"/>
-    </row>
-    <row r="794" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C794" s="1"/>
-      <c r="D794" s="2"/>
-    </row>
-    <row r="795" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C795" s="1"/>
-      <c r="D795" s="2"/>
-    </row>
-    <row r="796" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C796" s="1"/>
-      <c r="D796" s="2"/>
-    </row>
-    <row r="797" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C797" s="1"/>
-      <c r="D797" s="2"/>
-    </row>
-    <row r="798" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C798" s="1"/>
-      <c r="D798" s="2"/>
-    </row>
-    <row r="799" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C799" s="1"/>
-      <c r="D799" s="2"/>
-    </row>
-    <row r="800" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C800" s="1"/>
-      <c r="D800" s="2"/>
-    </row>
-    <row r="801" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C801" s="1"/>
-      <c r="D801" s="2"/>
-    </row>
-    <row r="802" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C802" s="1"/>
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C803" s="1"/>
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C804" s="1"/>
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C805" s="1"/>
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C806" s="1"/>
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C807" s="1"/>
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C808" s="1"/>
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C809" s="1"/>
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C810" s="1"/>
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C811" s="1"/>
-      <c r="D811" s="2"/>
-    </row>
-    <row r="812" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C812" s="1"/>
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C813" s="1"/>
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C814" s="1"/>
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C815" s="1"/>
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C816" s="1"/>
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C817" s="1"/>
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C818" s="1"/>
-      <c r="D818" s="2"/>
-    </row>
-    <row r="819" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C819" s="1"/>
-      <c r="D819" s="2"/>
-    </row>
-    <row r="820" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C820" s="1"/>
-      <c r="D820" s="2"/>
-    </row>
-    <row r="821" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C821" s="1"/>
-      <c r="D821" s="2"/>
-    </row>
-    <row r="822" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C822" s="1"/>
-      <c r="D822" s="2"/>
-    </row>
-    <row r="823" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C823" s="1"/>
-      <c r="D823" s="2"/>
-    </row>
-    <row r="824" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C824" s="1"/>
-      <c r="D824" s="2"/>
-    </row>
-    <row r="825" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C825" s="1"/>
-      <c r="D825" s="2"/>
-    </row>
-    <row r="826" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C826" s="1"/>
-      <c r="D826" s="2"/>
-    </row>
-    <row r="827" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C827" s="1"/>
-      <c r="D827" s="2"/>
-    </row>
-    <row r="828" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C828" s="1"/>
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C829" s="1"/>
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C830" s="1"/>
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C831" s="1"/>
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C832" s="1"/>
-      <c r="D832" s="2"/>
-    </row>
-    <row r="833" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C833" s="1"/>
-      <c r="D833" s="2"/>
-    </row>
-    <row r="834" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C834" s="1"/>
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C835" s="1"/>
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C836" s="1"/>
-      <c r="D836" s="2"/>
-    </row>
-    <row r="837" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C837" s="1"/>
-      <c r="D837" s="2"/>
-    </row>
-    <row r="838" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C838" s="1"/>
-      <c r="D838" s="2"/>
-    </row>
-    <row r="839" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C839" s="1"/>
-      <c r="D839" s="2"/>
-    </row>
-    <row r="840" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C840" s="1"/>
-      <c r="D840" s="2"/>
-    </row>
-    <row r="841" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C841" s="1"/>
-      <c r="D841" s="2"/>
-    </row>
-    <row r="842" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C842" s="1"/>
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C843" s="1"/>
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C844" s="1"/>
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C845" s="1"/>
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C846" s="1"/>
-      <c r="D846" s="2"/>
-    </row>
-    <row r="847" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C847" s="1"/>
-      <c r="D847" s="2"/>
-    </row>
-    <row r="848" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C848" s="1"/>
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C849" s="1"/>
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C850" s="1"/>
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C851" s="1"/>
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C852" s="1"/>
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C853" s="1"/>
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C854" s="1"/>
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C855" s="1"/>
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C856" s="1"/>
-      <c r="D856" s="2"/>
-    </row>
-    <row r="857" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C857" s="1"/>
-      <c r="D857" s="2"/>
-    </row>
-    <row r="858" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C858" s="1"/>
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C859" s="1"/>
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C860" s="1"/>
-      <c r="D860" s="2"/>
-    </row>
-    <row r="861" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C861" s="1"/>
-      <c r="D861" s="2"/>
-    </row>
-    <row r="862" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C862" s="1"/>
-      <c r="D862" s="2"/>
-    </row>
-    <row r="863" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C863" s="1"/>
-      <c r="D863" s="2"/>
-    </row>
-    <row r="864" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C864" s="1"/>
-      <c r="D864" s="2"/>
-    </row>
-    <row r="865" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C865" s="1"/>
-      <c r="D865" s="2"/>
-    </row>
-    <row r="866" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C866" s="1"/>
-      <c r="D866" s="2"/>
-    </row>
-    <row r="867" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C867" s="1"/>
-      <c r="D867" s="2"/>
-    </row>
-    <row r="868" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C868" s="1"/>
-      <c r="D868" s="2"/>
-    </row>
-    <row r="869" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C869" s="1"/>
-      <c r="D869" s="2"/>
-    </row>
-    <row r="870" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C870" s="1"/>
-      <c r="D870" s="2"/>
-    </row>
-    <row r="871" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C871" s="1"/>
-      <c r="D871" s="2"/>
-    </row>
-    <row r="872" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C872" s="1"/>
-      <c r="D872" s="2"/>
-    </row>
-    <row r="873" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C873" s="1"/>
-      <c r="D873" s="2"/>
-    </row>
-    <row r="874" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C874" s="1"/>
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C875" s="1"/>
-      <c r="D875" s="2"/>
-    </row>
-    <row r="876" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C876" s="1"/>
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C877" s="1"/>
-      <c r="D877" s="2"/>
-    </row>
-    <row r="878" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C878" s="1"/>
-      <c r="D878" s="2"/>
-    </row>
-    <row r="879" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C879" s="1"/>
-      <c r="D879" s="2"/>
-    </row>
-    <row r="880" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C880" s="1"/>
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C881" s="1"/>
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C882" s="1"/>
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C883" s="1"/>
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C884" s="1"/>
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C885" s="1"/>
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C886" s="1"/>
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C887" s="1"/>
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C888" s="1"/>
-      <c r="D888" s="2"/>
-    </row>
-    <row r="889" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C889" s="1"/>
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C890" s="1"/>
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C891" s="1"/>
-      <c r="D891" s="2"/>
-    </row>
-    <row r="892" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C892" s="1"/>
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C893" s="1"/>
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C894" s="1"/>
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C895" s="1"/>
-      <c r="D895" s="2"/>
-    </row>
-    <row r="896" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C896" s="1"/>
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C897" s="1"/>
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C898" s="1"/>
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C899" s="1"/>
-      <c r="D899" s="2"/>
-    </row>
-    <row r="900" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C900" s="1"/>
-      <c r="D900" s="2"/>
-    </row>
-    <row r="901" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C901" s="1"/>
-      <c r="D901" s="2"/>
-    </row>
-    <row r="902" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C902" s="1"/>
-      <c r="D902" s="2"/>
-    </row>
-    <row r="903" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C903" s="1"/>
-      <c r="D903" s="2"/>
-    </row>
-    <row r="904" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C904" s="1"/>
-      <c r="D904" s="2"/>
-    </row>
-    <row r="905" spans="3:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C905" s="1"/>
-      <c r="D905" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7157,7 +6554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE331B-1663-4D94-B2D1-C5AF3D46E9A7}">
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection sqref="A1:C300"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
